--- a/data/gmo_analysis_data.xlsx
+++ b/data/gmo_analysis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandorochacorreaurbano/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B23705-5A4D-CC42-8B17-868165E4A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{397B8A7A-4FA3-DB45-A299-E0AD706DB55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,6 +109,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +155,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5260,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8628,15 +8629,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D336"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -8655,4691 +8657,5059 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>35430</v>
+        <v>34028</v>
       </c>
       <c r="B2">
-        <v>-2.3292236001648089E-2</v>
-      </c>
-      <c r="C2">
-        <v>-2.209414024975986E-2</v>
-      </c>
-      <c r="D2">
-        <v>-1.300000000000001E-2</v>
+        <v>1.0666999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>35461</v>
+        <v>34059</v>
       </c>
       <c r="B3">
-        <v>6.1786443788792278E-2</v>
-      </c>
-      <c r="C3">
-        <v>1.473477406679757E-2</v>
-      </c>
-      <c r="D3">
-        <v>3.4447821681864221E-2</v>
+        <v>2.2408000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>35489</v>
+        <v>34089</v>
       </c>
       <c r="B4">
-        <v>9.5652982040381751E-3</v>
-      </c>
-      <c r="C4">
-        <v>2.2265246853823809E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.273261508325163E-2</v>
+        <v>-2.5590000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>35520</v>
+        <v>34120</v>
       </c>
       <c r="B5">
-        <v>-4.5720979363767962E-2</v>
-      </c>
-      <c r="C5">
-        <v>-1.515151515151514E-2</v>
-      </c>
-      <c r="D5">
-        <v>-1.6441005802707909E-2</v>
+        <v>2.6970000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>35550</v>
+        <v>34150</v>
       </c>
       <c r="B6">
-        <v>6.4368398205759014E-2</v>
-      </c>
-      <c r="C6">
-        <v>-6.7307692307692069E-3</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>3.6670000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>35580</v>
+        <v>34181</v>
       </c>
       <c r="B7">
-        <v>6.320706195295811E-2</v>
-      </c>
-      <c r="C7">
-        <v>5.7115198451113347E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.8013765978367722E-2</v>
+        <v>-4.8599999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>35611</v>
+        <v>34212</v>
       </c>
       <c r="B8">
-        <v>4.1115829066750383E-2</v>
-      </c>
-      <c r="C8">
-        <v>4.3040293040293109E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.4609665427509222E-2</v>
+        <v>3.8329000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>35642</v>
+        <v>34242</v>
       </c>
       <c r="B9">
-        <v>7.9263562321278958E-2</v>
-      </c>
-      <c r="C9">
-        <v>2.9850746268656581E-2</v>
-      </c>
-      <c r="D9">
-        <v>3.7366548042704562E-2</v>
+        <v>-7.26E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>35671</v>
+        <v>34273</v>
       </c>
       <c r="B10">
-        <v>-5.1803222102000057E-2</v>
-      </c>
-      <c r="C10">
-        <v>-3.4100596760443191E-2</v>
-      </c>
-      <c r="D10">
-        <v>-2.315608919382495E-2</v>
+        <v>1.9727000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>35703</v>
+        <v>34303</v>
       </c>
       <c r="B11">
-        <v>4.8087760688308112E-2</v>
-      </c>
-      <c r="C11">
-        <v>4.8543689320388328E-2</v>
-      </c>
-      <c r="D11">
-        <v>5.531167690956984E-2</v>
+        <v>-1.0670000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>35734</v>
+        <v>34334</v>
       </c>
       <c r="B12">
-        <v>-2.450323669063648E-2</v>
-      </c>
-      <c r="C12">
-        <v>-7.6599326599326667E-2</v>
-      </c>
-      <c r="D12">
-        <v>-6.4059900166389405E-2</v>
+        <v>1.2239E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>35762</v>
+        <v>34365</v>
       </c>
       <c r="B13">
-        <v>3.8696866395058198E-2</v>
-      </c>
-      <c r="C13">
-        <v>-9.1157702825872544E-4</v>
-      </c>
-      <c r="D13">
-        <v>1.511111111111108E-2</v>
+        <v>3.4875999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>35795</v>
+        <v>34393</v>
       </c>
       <c r="B14">
-        <v>1.909658949113124E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.3686131386861261E-2</v>
-      </c>
-      <c r="D14">
-        <v>-8.4841408834403609E-2</v>
+        <v>-2.9159999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>35825</v>
+        <v>34424</v>
       </c>
       <c r="B15">
-        <v>1.2878150115095849E-2</v>
-      </c>
-      <c r="C15">
-        <v>-9.0009000900093117E-4</v>
-      </c>
-      <c r="D15">
-        <v>1.06315118009781E-3</v>
+        <v>-4.19E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>35853</v>
+        <v>34454</v>
       </c>
       <c r="B16">
-        <v>6.9295187664392799E-2</v>
-      </c>
-      <c r="C16">
-        <v>6.0660660660660781E-2</v>
-      </c>
-      <c r="D16">
-        <v>5.862361937128302E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1212E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>35885</v>
+        <v>34485</v>
       </c>
       <c r="B17">
-        <v>4.876146726369246E-2</v>
-      </c>
-      <c r="C17">
-        <v>5.4077010192525421E-2</v>
-      </c>
-      <c r="D17">
-        <v>4.3037720706260003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.5939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>35915</v>
+        <v>34515</v>
       </c>
       <c r="B18">
-        <v>1.2791433652624249E-2</v>
-      </c>
-      <c r="C18">
-        <v>-6.4464141821111154E-3</v>
-      </c>
-      <c r="D18">
-        <v>-5.4823506780801168E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.2880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>35944</v>
+        <v>34546</v>
       </c>
       <c r="B19">
-        <v>-2.076865302974917E-2</v>
-      </c>
-      <c r="C19">
-        <v>-1.8383346850500141E-2</v>
-      </c>
-      <c r="D19">
-        <v>-1.4700193423597741E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.2326000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>35976</v>
+        <v>34577</v>
       </c>
       <c r="B20">
-        <v>4.2589721504450173E-2</v>
-      </c>
-      <c r="C20">
-        <v>-3.0019278435692739E-2</v>
-      </c>
-      <c r="D20">
-        <v>-8.4413034943070508E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.8121000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>36007</v>
+        <v>34607</v>
       </c>
       <c r="B21">
-        <v>-1.351331149697599E-2</v>
-      </c>
-      <c r="C21">
-        <v>-2.8392958546274988E-4</v>
-      </c>
-      <c r="D21">
-        <v>-3.3755691942189643E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-2.521E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>36038</v>
+        <v>34638</v>
       </c>
       <c r="B22">
-        <v>-0.1411802895850516</v>
-      </c>
-      <c r="C22">
-        <v>-0.14512922465208741</v>
-      </c>
-      <c r="D22">
-        <v>-0.1286753406413278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.8426E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>36068</v>
+        <v>34668</v>
       </c>
       <c r="B23">
-        <v>6.3618203482038727E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.428571428571423E-2</v>
-      </c>
-      <c r="D23">
-        <v>2.045855379188732E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.9820000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>36098</v>
+        <v>34699</v>
       </c>
       <c r="B24">
-        <v>8.1081057482585095E-2</v>
-      </c>
-      <c r="C24">
-        <v>3.7667867671143052E-2</v>
-      </c>
-      <c r="D24">
-        <v>2.557898375388867E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7.2449999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>36129</v>
+        <v>34730</v>
       </c>
       <c r="B25">
-        <v>5.5682402816466858E-2</v>
-      </c>
-      <c r="C25">
-        <v>7.4810606060605966E-2</v>
-      </c>
-      <c r="D25">
-        <v>7.7069992135714971E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.3606999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>36160</v>
+        <v>34758</v>
       </c>
       <c r="B26">
-        <v>6.5405595636107705E-2</v>
-      </c>
-      <c r="C26">
-        <v>1.1747430249635651E-3</v>
-      </c>
-      <c r="D26">
-        <v>-5.6743506832168562E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.0809999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>36189</v>
+        <v>34789</v>
       </c>
       <c r="B27">
-        <v>3.5225240039897132E-2</v>
-      </c>
-      <c r="C27">
-        <v>-3.5200938691699601E-3</v>
-      </c>
-      <c r="D27">
-        <v>7.7407939842970563E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.7841000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>36217</v>
+        <v>34819</v>
       </c>
       <c r="B28">
-        <v>-3.2068450058440501E-2</v>
-      </c>
-      <c r="C28">
-        <v>-2.1783926994406899E-2</v>
-      </c>
-      <c r="D28">
-        <v>-2.6336003511467029E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.9623E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>36250</v>
+        <v>34850</v>
       </c>
       <c r="B29">
-        <v>4.1510558949236158E-2</v>
-      </c>
-      <c r="C29">
-        <v>3.6412879927776087E-2</v>
-      </c>
-      <c r="D29">
-        <v>3.2683421616138693E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.9673E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>36280</v>
+        <v>34880</v>
       </c>
       <c r="B30">
-        <v>3.7974221923750218E-2</v>
-      </c>
-      <c r="C30">
-        <v>8.5656213704994322E-2</v>
-      </c>
-      <c r="D30">
-        <v>7.4211502782931538E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.0212000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>36311</v>
+        <v>34911</v>
       </c>
       <c r="B31">
-        <v>-2.2865503007258089E-2</v>
-      </c>
-      <c r="C31">
-        <v>-1.444236426852097E-2</v>
-      </c>
-      <c r="D31">
-        <v>-1.523925632429135E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.2164999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>36341</v>
+        <v>34942</v>
       </c>
       <c r="B32">
-        <v>5.5374267990208947E-2</v>
-      </c>
-      <c r="C32">
-        <v>6.4314789687923923E-2</v>
-      </c>
-      <c r="D32">
-        <v>5.2615289384091657E-2</v>
+        <v>4.4520000000000002E-3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>36371</v>
+        <v>34972</v>
       </c>
       <c r="B33">
-        <v>-3.102181921734171E-2</v>
-      </c>
-      <c r="C33">
-        <v>-3.0596634370219089E-3</v>
-      </c>
-      <c r="D33">
-        <v>-4.126237381162412E-2</v>
+        <v>4.2376999999999998E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>36403</v>
+        <v>35003</v>
       </c>
       <c r="B34">
-        <v>-5.1791575891542152E-3</v>
-      </c>
-      <c r="C34">
-        <v>-1.023017902813228E-3</v>
-      </c>
-      <c r="D34">
-        <v>-1.042731547740749E-2</v>
+        <v>-2.9399999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>36433</v>
+        <v>35033</v>
       </c>
       <c r="B35">
-        <v>-2.2369581903211588E-2</v>
-      </c>
-      <c r="C35">
-        <v>-2.918586789554534E-2</v>
-      </c>
-      <c r="D35">
-        <v>-3.047520661157033E-2</v>
+        <v>4.4478999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>36462</v>
+        <v>35064</v>
       </c>
       <c r="B36">
-        <v>6.4077553347939631E-2</v>
-      </c>
-      <c r="C36">
-        <v>8.4388185654007408E-3</v>
-      </c>
-      <c r="D36">
-        <v>1.193393713372415E-2</v>
+        <v>1.5730000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>36494</v>
+        <v>35095</v>
       </c>
       <c r="B37">
-        <v>1.665153822879328E-2</v>
-      </c>
-      <c r="C37">
-        <v>4.1579497907949792E-2</v>
-      </c>
-      <c r="D37">
-        <v>4.4961566810571618E-2</v>
+        <v>3.5577999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>36525</v>
+        <v>35124</v>
       </c>
       <c r="B38">
-        <v>5.7090000201771567E-2</v>
-      </c>
-      <c r="C38">
-        <v>5.6741149887020059E-2</v>
-      </c>
-      <c r="D38">
-        <v>1.4308746473196351E-2</v>
+        <v>3.1909999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>36556</v>
+        <v>35155</v>
       </c>
       <c r="B39">
-        <v>-4.9787234550198178E-2</v>
-      </c>
-      <c r="C39">
-        <v>-2.684723212164419E-2</v>
-      </c>
-      <c r="D39">
-        <v>-3.0896085833498899E-2</v>
+        <v>1.7221E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>36585</v>
+        <v>35185</v>
       </c>
       <c r="B40">
-        <v>-1.522636793122023E-2</v>
-      </c>
-      <c r="C40">
-        <v>-1.5625E-2</v>
-      </c>
-      <c r="D40">
-        <v>-4.2029728344438189E-3</v>
+        <v>1.0869E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>36616</v>
+        <v>35216</v>
       </c>
       <c r="B41">
-        <v>9.6895019665087734E-2</v>
-      </c>
-      <c r="C41">
-        <v>4.8363095238095337E-2</v>
-      </c>
-      <c r="D41">
-        <v>6.2898908791435115E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>36644</v>
+        <v>35246</v>
       </c>
       <c r="B42">
-        <v>-3.5120782716634769E-2</v>
-      </c>
-      <c r="C42">
-        <v>-2.57866098888101E-2</v>
-      </c>
-      <c r="D42">
-        <v>-1.2009685230024211E-2</v>
+        <v>8.7749999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>36677</v>
+        <v>35277</v>
       </c>
       <c r="B43">
-        <v>-1.572267383627823E-2</v>
-      </c>
-      <c r="C43">
-        <v>-1.3113161728994681E-2</v>
-      </c>
-      <c r="D43">
-        <v>-1.529261837074802E-2</v>
+        <v>-4.4940000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>36707</v>
+        <v>35308</v>
       </c>
       <c r="B44">
-        <v>1.9704620385305519E-2</v>
-      </c>
-      <c r="C44">
-        <v>3.2480314960629857E-2</v>
-      </c>
-      <c r="D44">
-        <v>2.2697859631657599E-2</v>
+        <v>1.9258999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>36738</v>
+        <v>35338</v>
       </c>
       <c r="B45">
-        <v>-1.57023543630187E-2</v>
-      </c>
-      <c r="C45">
-        <v>-1.0009532888465291E-2</v>
-      </c>
-      <c r="D45">
-        <v>-3.0176190012654591E-2</v>
+        <v>5.5854000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>36769</v>
+        <v>35369</v>
       </c>
       <c r="B46">
-        <v>6.5341032061165594E-2</v>
-      </c>
-      <c r="C46">
-        <v>3.3943187289359633E-2</v>
-      </c>
-      <c r="D46">
-        <v>4.847937368262567E-2</v>
+        <v>3.2330999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>36798</v>
+        <v>35399</v>
       </c>
       <c r="B47">
-        <v>-5.4807353351859489E-2</v>
-      </c>
-      <c r="C47">
-        <v>-2.863795110593725E-2</v>
-      </c>
-      <c r="D47">
-        <v>-1.6082711085582901E-2</v>
+        <v>7.3003999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>36830</v>
+        <v>35430</v>
       </c>
       <c r="B48">
-        <v>-4.6776756928571528E-3</v>
+        <v>-2.3292236001648089E-2</v>
       </c>
       <c r="C48">
-        <v>-3.044103547459243E-2</v>
+        <v>-2.209414024975986E-2</v>
       </c>
       <c r="D48">
-        <v>-2.7534539793734211E-2</v>
+        <v>-1.300000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>36860</v>
+        <v>35461</v>
       </c>
       <c r="B49">
-        <v>-7.4653167464440839E-2</v>
+        <v>6.1786443788792278E-2</v>
       </c>
       <c r="C49">
-        <v>-9.8887515451184793E-4</v>
+        <v>1.473477406679757E-2</v>
       </c>
       <c r="D49">
-        <v>-1.0505252626313079E-2</v>
+        <v>3.4447821681864221E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>36889</v>
+        <v>35489</v>
       </c>
       <c r="B50">
-        <v>-5.1537480040729777E-3</v>
+        <v>9.5652982040381751E-3</v>
       </c>
       <c r="C50">
-        <v>3.9594159861420453E-2</v>
+        <v>2.2265246853823809E-2</v>
       </c>
       <c r="D50">
-        <v>-1.7492416582406519E-2</v>
+        <v>1.273261508325163E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>36922</v>
+        <v>35520</v>
       </c>
       <c r="B51">
-        <v>4.4459333823625657E-2</v>
+        <v>-4.5720979363767962E-2</v>
       </c>
       <c r="C51">
-        <v>2.4517971911449669E-2</v>
+        <v>-1.515151515151514E-2</v>
       </c>
       <c r="D51">
-        <v>2.1199958835031341E-2</v>
+        <v>-1.6441005802707909E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>36950</v>
+        <v>35550</v>
       </c>
       <c r="B52">
-        <v>-9.5387580053230669E-2</v>
+        <v>6.4368398205759014E-2</v>
       </c>
       <c r="C52">
-        <v>-1.301115241635697E-2</v>
+        <v>-6.7307692307692069E-3</v>
       </c>
       <c r="D52">
-        <v>-2.7310289227048371E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>36980</v>
+        <v>35580</v>
       </c>
       <c r="B53">
-        <v>-5.5989582422716122E-2</v>
+        <v>6.320706195295811E-2</v>
       </c>
       <c r="C53">
-        <v>-5.6497175141242861E-2</v>
+        <v>5.7115198451113347E-2</v>
       </c>
       <c r="D53">
-        <v>-3.9266473269788597E-2</v>
+        <v>5.8013765978367722E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>37011</v>
+        <v>35611</v>
       </c>
       <c r="B54">
-        <v>7.0443581127132671E-2</v>
+        <v>4.1115829066750383E-2</v>
       </c>
       <c r="C54">
-        <v>4.4411177644710698E-2</v>
+        <v>4.3040293040293109E-2</v>
       </c>
       <c r="D54">
-        <v>4.2057586541572212E-2</v>
+        <v>4.4609665427509222E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>37042</v>
+        <v>35642</v>
       </c>
       <c r="B55">
-        <v>8.3257262171789748E-3</v>
+        <v>7.9263562321278958E-2</v>
       </c>
       <c r="C55">
-        <v>1.17056856187292E-2</v>
+        <v>2.9850746268656581E-2</v>
       </c>
       <c r="D55">
-        <v>1.5626616992652439E-2</v>
+        <v>3.7366548042704562E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>37071</v>
+        <v>35671</v>
       </c>
       <c r="B56">
-        <v>-2.382993502174735E-2</v>
+        <v>-5.1803222102000057E-2</v>
       </c>
       <c r="C56">
-        <v>-3.5419126328216639E-3</v>
+        <v>-3.4100596760443191E-2</v>
       </c>
       <c r="D56">
-        <v>1.1208477684940821E-3</v>
+        <v>-2.315608919382495E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>37103</v>
+        <v>35703</v>
       </c>
       <c r="B57">
-        <v>-1.019595986584465E-2</v>
+        <v>4.8087760688308112E-2</v>
       </c>
       <c r="C57">
-        <v>-1.161137440758298E-2</v>
+        <v>4.8543689320388328E-2</v>
       </c>
       <c r="D57">
-        <v>-2.2595419847328269E-2</v>
+        <v>5.531167690956984E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>37134</v>
+        <v>35734</v>
       </c>
       <c r="B58">
-        <v>-5.9332442536880192E-2</v>
+        <v>-2.450323669063648E-2</v>
       </c>
       <c r="C58">
-        <v>1.174778230640139E-2</v>
+        <v>-7.6599326599326667E-2</v>
       </c>
       <c r="D58">
-        <v>-9.0596688534833048E-3</v>
+        <v>-6.4059900166389405E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>37162</v>
+        <v>35762</v>
       </c>
       <c r="B59">
-        <v>-8.1593106807480775E-2</v>
+        <v>3.8696866395058198E-2</v>
       </c>
       <c r="C59">
-        <v>-0.1061611374407584</v>
+        <v>-9.1157702825872544E-4</v>
       </c>
       <c r="D59">
-        <v>-8.2597730138713743E-2</v>
+        <v>1.511111111111108E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>37195</v>
+        <v>35795</v>
       </c>
       <c r="B60">
-        <v>1.3022145952955141E-2</v>
+        <v>1.909658949113124E-2</v>
       </c>
       <c r="C60">
-        <v>1.9618239660657451E-2</v>
+        <v>1.3686131386861261E-2</v>
       </c>
       <c r="D60">
-        <v>2.5200458190148818E-3</v>
+        <v>-8.4841408834403609E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>37225</v>
+        <v>35825</v>
       </c>
       <c r="B61">
-        <v>7.7976714210110876E-2</v>
+        <v>1.2878150115095849E-2</v>
       </c>
       <c r="C61">
-        <v>4.3421736869474932E-2</v>
+        <v>-9.0009000900093117E-4</v>
       </c>
       <c r="D61">
-        <v>5.4844606946983447E-2</v>
+        <v>1.06315118009781E-3</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>37256</v>
+        <v>35853</v>
       </c>
       <c r="B62">
-        <v>5.6164504244151647E-3</v>
+        <v>6.9295187664392799E-2</v>
       </c>
       <c r="C62">
-        <v>2.94044355843508E-2</v>
+        <v>6.0660660660660781E-2</v>
       </c>
       <c r="D62">
-        <v>1.2348353552859679E-2</v>
+        <v>5.862361937128302E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>37287</v>
+        <v>35885</v>
       </c>
       <c r="B63">
-        <v>-9.7984159002997284E-3</v>
+        <v>4.876146726369246E-2</v>
       </c>
       <c r="C63">
-        <v>1.2103606874847019E-3</v>
+        <v>5.4077010192525421E-2</v>
       </c>
       <c r="D63">
-        <v>7.0618446394179468E-3</v>
+        <v>4.3037720706260003E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>37315</v>
+        <v>35915</v>
       </c>
       <c r="B64">
-        <v>-1.7936595797452441E-2</v>
+        <v>1.2791433652624249E-2</v>
       </c>
       <c r="C64">
-        <v>2.756286266924568E-2</v>
+        <v>-6.4464141821111154E-3</v>
       </c>
       <c r="D64">
-        <v>9.3497662558434946E-3</v>
+        <v>-5.4823506780801168E-3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>37344</v>
+        <v>35944</v>
       </c>
       <c r="B65">
-        <v>3.3242833691122582E-2</v>
+        <v>-2.076865302974917E-2</v>
       </c>
       <c r="C65">
-        <v>5.2000000000000053E-2</v>
+        <v>-1.8383346850500141E-2</v>
       </c>
       <c r="D65">
-        <v>4.621052631578948E-2</v>
+        <v>-1.4700193423597741E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>37376</v>
+        <v>35976</v>
       </c>
       <c r="B66">
-        <v>-5.8155331774833792E-2</v>
+        <v>4.2589721504450173E-2</v>
       </c>
       <c r="C66">
-        <v>1.5432789085215729E-2</v>
+        <v>-3.0019278435692739E-2</v>
       </c>
       <c r="D66">
-        <v>2.1128886205854509E-3</v>
+        <v>-8.4413034943070508E-3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>37407</v>
+        <v>36007</v>
       </c>
       <c r="B67">
-        <v>-5.9334525984471309E-3</v>
+        <v>-1.351331149697599E-2</v>
       </c>
       <c r="C67">
-        <v>1.960352422907485E-2</v>
+        <v>-2.8392958546274988E-4</v>
       </c>
       <c r="D67">
-        <v>1.104417670682745E-2</v>
+        <v>-3.3755691942189643E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>37435</v>
+        <v>36038</v>
       </c>
       <c r="B68">
-        <v>-7.3753215659305593E-2</v>
+        <v>-0.1411802895850516</v>
       </c>
       <c r="C68">
-        <v>-5.530352127889393E-2</v>
+        <v>-0.14512922465208741</v>
       </c>
       <c r="D68">
-        <v>-4.5779543197616679E-2</v>
+        <v>-0.1286753406413278</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>37468</v>
+        <v>36068</v>
       </c>
       <c r="B69">
-        <v>-7.8819825177108727E-2</v>
+        <v>6.3618203482038727E-2</v>
       </c>
       <c r="C69">
-        <v>-2.4468328378687398E-2</v>
+        <v>1.428571428571423E-2</v>
       </c>
       <c r="D69">
-        <v>-7.5866375273181408E-2</v>
+        <v>2.045855379188732E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>37498</v>
+        <v>36098</v>
       </c>
       <c r="B70">
-        <v>6.8014963105311743E-3</v>
+        <v>8.1081057482585095E-2</v>
       </c>
       <c r="C70">
-        <v>1.1954992967651229E-2</v>
+        <v>3.7667867671143052E-2</v>
       </c>
       <c r="D70">
-        <v>7.432432432432412E-3</v>
+        <v>2.557898375388867E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>37529</v>
+        <v>36129</v>
       </c>
       <c r="B71">
-        <v>-0.1048523017138578</v>
+        <v>5.5682402816466858E-2</v>
       </c>
       <c r="C71">
-        <v>-3.9842483205929979E-2</v>
+        <v>7.4810606060605966E-2</v>
       </c>
       <c r="D71">
-        <v>-8.741336910350983E-2</v>
+        <v>7.7069992135714971E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>37560</v>
+        <v>36160</v>
       </c>
       <c r="B72">
-        <v>8.2283577856490764E-2</v>
+        <v>6.5405595636107705E-2</v>
       </c>
       <c r="C72">
-        <v>9.6501809408926498E-3</v>
+        <v>1.1747430249635651E-3</v>
       </c>
       <c r="D72">
-        <v>4.3238608525232758E-2</v>
+        <v>-5.6743506832168562E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>37589</v>
+        <v>36189</v>
       </c>
       <c r="B73">
-        <v>6.1680846831268621E-2</v>
+        <v>3.5225240039897132E-2</v>
       </c>
       <c r="C73">
-        <v>2.0549581839904411E-2</v>
+        <v>-3.5200938691699601E-3</v>
       </c>
       <c r="D73">
-        <v>4.3912175648702423E-2</v>
+        <v>7.7407939842970563E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>37621</v>
+        <v>36217</v>
       </c>
       <c r="B74">
-        <v>-5.6636203533963592E-2</v>
+        <v>-3.2068450058440501E-2</v>
       </c>
       <c r="C74">
-        <v>-2.3413720440178531E-3</v>
+        <v>-2.1783926994406899E-2</v>
       </c>
       <c r="D74">
-        <v>-3.2392306827128459E-2</v>
+        <v>-2.6336003511467029E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>37652</v>
+        <v>36250</v>
       </c>
       <c r="B75">
-        <v>-2.4594781964335951E-2</v>
+        <v>4.1510558949236158E-2</v>
       </c>
       <c r="C75">
-        <v>-1.079558789016666E-2</v>
+        <v>3.6412879927776087E-2</v>
       </c>
       <c r="D75">
-        <v>-1.673834708822497E-2</v>
+        <v>3.2683421616138693E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>37680</v>
+        <v>36280</v>
       </c>
       <c r="B76">
-        <v>-1.347877249970131E-2</v>
+        <v>3.7974221923750218E-2</v>
       </c>
       <c r="C76">
-        <v>-4.982206405694023E-3</v>
+        <v>8.5656213704994322E-2</v>
       </c>
       <c r="D76">
-        <v>-1.7023288804823289E-2</v>
+        <v>7.4211502782931538E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>37711</v>
+        <v>36311</v>
       </c>
       <c r="B77">
-        <v>2.0601573896734671E-3</v>
+        <v>-2.2865503007258089E-2</v>
       </c>
       <c r="C77">
-        <v>5.0071530758226679E-3</v>
+        <v>-1.444236426852097E-2</v>
       </c>
       <c r="D77">
-        <v>-7.9374624173181862E-3</v>
+        <v>-1.523925632429135E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>37741</v>
+        <v>36341</v>
       </c>
       <c r="B78">
-        <v>8.4611682310554936E-2</v>
+        <v>5.5374267990208947E-2</v>
       </c>
       <c r="C78">
-        <v>4.2941874258600299E-2</v>
+        <v>6.4314789687923923E-2</v>
       </c>
       <c r="D78">
-        <v>7.7827615468541778E-2</v>
+        <v>5.2615289384091657E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>37771</v>
+        <v>36371</v>
       </c>
       <c r="B79">
-        <v>5.4835446181715992E-2</v>
+        <v>-3.102181921734171E-2</v>
       </c>
       <c r="C79">
-        <v>6.0054595086442182E-2</v>
+        <v>-3.0596634370219089E-3</v>
       </c>
       <c r="D79">
-        <v>7.2207850635474191E-2</v>
+        <v>-4.126237381162412E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>37802</v>
+        <v>36403</v>
       </c>
       <c r="B80">
-        <v>1.066253484064195E-2</v>
+        <v>-5.1791575891542152E-3</v>
       </c>
       <c r="C80">
-        <v>2.5751072961373241E-2</v>
+        <v>-1.023017902813228E-3</v>
       </c>
       <c r="D80">
-        <v>2.7903073534039539E-2</v>
+        <v>-1.042731547740749E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>37833</v>
+        <v>36433</v>
       </c>
       <c r="B81">
-        <v>1.8027061147092519E-2</v>
+        <v>-2.2369581903211588E-2</v>
       </c>
       <c r="C81">
-        <v>4.3933054393305859E-3</v>
+        <v>-2.918586789554534E-2</v>
       </c>
       <c r="D81">
-        <v>1.132768649862226E-2</v>
+        <v>-3.047520661157033E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>37862</v>
+        <v>36462</v>
       </c>
       <c r="B82">
-        <v>2.0626336627332709E-2</v>
+        <v>6.4077553347939631E-2</v>
       </c>
       <c r="C82">
-        <v>1.4163715892522299E-2</v>
+        <v>8.4388185654007408E-3</v>
       </c>
       <c r="D82">
-        <v>2.5630676084762879E-2</v>
+        <v>1.193393713372415E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>37894</v>
+        <v>36494</v>
       </c>
       <c r="B83">
-        <v>-1.088659787016044E-2</v>
+        <v>1.665153822879328E-2</v>
       </c>
       <c r="C83">
-        <v>2.4645717806531131E-2</v>
+        <v>4.1579497907949792E-2</v>
       </c>
       <c r="D83">
-        <v>1.4167650531286879E-2</v>
+        <v>4.4961566810571618E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>37925</v>
+        <v>36525</v>
       </c>
       <c r="B84">
-        <v>5.3527021441143408E-2</v>
+        <v>5.7090000201771567E-2</v>
       </c>
       <c r="C84">
-        <v>3.8685107235919107E-2</v>
+        <v>5.6741149887020059E-2</v>
       </c>
       <c r="D84">
-        <v>6.121459060923562E-2</v>
+        <v>1.4308746473196351E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>37953</v>
+        <v>36556</v>
       </c>
       <c r="B85">
-        <v>1.0921042743629259E-2</v>
+        <v>-4.9787234550198178E-2</v>
       </c>
       <c r="C85">
-        <v>1.0999614048629921E-2</v>
+        <v>-2.684723212164419E-2</v>
       </c>
       <c r="D85">
-        <v>1.7277630496389081E-2</v>
+        <v>-3.0896085833498899E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>37986</v>
+        <v>36585</v>
       </c>
       <c r="B86">
-        <v>5.0322738152900108E-2</v>
+        <v>-1.522636793122023E-2</v>
       </c>
       <c r="C86">
-        <v>2.59591525100209E-2</v>
+        <v>-1.5625E-2</v>
       </c>
       <c r="D86">
-        <v>4.2415528396836821E-2</v>
+        <v>-4.2029728344438189E-3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>38016</v>
+        <v>36616</v>
       </c>
       <c r="B87">
-        <v>1.9770063220694519E-2</v>
+        <v>9.6895019665087734E-2</v>
       </c>
       <c r="C87">
-        <v>2.325581395348841E-2</v>
+        <v>4.8363095238095337E-2</v>
       </c>
       <c r="D87">
-        <v>2.5086206896551611E-2</v>
+        <v>6.2898908791435115E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>38044</v>
+        <v>36644</v>
       </c>
       <c r="B88">
-        <v>1.357082273112797E-2</v>
+        <v>-3.5120782716634769E-2</v>
       </c>
       <c r="C88">
-        <v>1.527272727272733E-2</v>
+        <v>-2.57866098888101E-2</v>
       </c>
       <c r="D88">
-        <v>1.505340173240266E-2</v>
+        <v>-1.2009685230024211E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>38077</v>
+        <v>36677</v>
       </c>
       <c r="B89">
-        <v>-1.319811589345499E-2</v>
+        <v>-1.572267383627823E-2</v>
       </c>
       <c r="C89">
-        <v>4.6561604584527414E-3</v>
+        <v>-1.3113161728994681E-2</v>
       </c>
       <c r="D89">
-        <v>8.2850041425019949E-3</v>
+        <v>-1.529261837074802E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>38107</v>
+        <v>36707</v>
       </c>
       <c r="B90">
-        <v>-1.8921410227568099E-2</v>
+        <v>1.9704620385305519E-2</v>
       </c>
       <c r="C90">
-        <v>-2.6024955436720121E-2</v>
+        <v>3.2480314960629857E-2</v>
       </c>
       <c r="D90">
-        <v>-3.7633525061626982E-2</v>
+        <v>2.2697859631657599E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>38138</v>
+        <v>36738</v>
       </c>
       <c r="B91">
-        <v>1.712355538613974E-2</v>
+        <v>-1.57023543630187E-2</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>-1.0009532888465291E-2</v>
       </c>
       <c r="D91">
-        <v>3.8422131147539669E-3</v>
+        <v>-3.0176190012654591E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>38168</v>
+        <v>36769</v>
       </c>
       <c r="B92">
-        <v>1.8492452306762219E-2</v>
+        <v>6.5341032061165594E-2</v>
       </c>
       <c r="C92">
-        <v>1.043191800878485E-2</v>
+        <v>3.3943187289359633E-2</v>
       </c>
       <c r="D92">
-        <v>2.2794930679595149E-2</v>
+        <v>4.847937368262567E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>38198</v>
+        <v>36798</v>
       </c>
       <c r="B93">
-        <v>-3.221907041826344E-2</v>
+        <v>-5.4807353351859489E-2</v>
       </c>
       <c r="C93">
-        <v>-7.0639376924470643E-3</v>
+        <v>-2.863795110593725E-2</v>
       </c>
       <c r="D93">
-        <v>-3.3513513513513497E-2</v>
+        <v>-1.6082711085582901E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>38230</v>
+        <v>36830</v>
       </c>
       <c r="B94">
-        <v>2.4364850454323679E-3</v>
+        <v>-4.6776756928571528E-3</v>
       </c>
       <c r="C94">
-        <v>1.3498723093761541E-2</v>
+        <v>-3.044103547459243E-2</v>
       </c>
       <c r="D94">
-        <v>1.8327310273618998E-2</v>
+        <v>-2.7534539793734211E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>38260</v>
+        <v>36860</v>
       </c>
       <c r="B95">
-        <v>1.00170902434491E-2</v>
+        <v>-7.4653167464440839E-2</v>
       </c>
       <c r="C95">
-        <v>2.1958243340532761E-2</v>
+        <v>-9.8887515451184793E-4</v>
       </c>
       <c r="D95">
-        <v>2.179974651457561E-2</v>
+        <v>-1.0505252626313079E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>38289</v>
+        <v>36889</v>
       </c>
       <c r="B96">
-        <v>1.288455825995749E-2</v>
+        <v>-5.1537480040729777E-3</v>
       </c>
       <c r="C96">
-        <v>1.1976047904191709E-2</v>
+        <v>3.9594159861420453E-2</v>
       </c>
       <c r="D96">
-        <v>1.5711568676093579E-2</v>
+        <v>-1.7492416582406519E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>38321</v>
+        <v>36922</v>
       </c>
       <c r="B97">
-        <v>4.4510355674440387E-2</v>
+        <v>4.4459333823625657E-2</v>
       </c>
       <c r="C97">
-        <v>3.4980856247824432E-2</v>
+        <v>2.4517971911449669E-2</v>
       </c>
       <c r="D97">
-        <v>5.1208988032239722E-2</v>
+        <v>2.1199958835031341E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>38352</v>
+        <v>36950</v>
       </c>
       <c r="B98">
-        <v>3.015217165239692E-2</v>
+        <v>-9.5387580053230669E-2</v>
       </c>
       <c r="C98">
-        <v>2.6736169497225459E-2</v>
+        <v>-1.301115241635697E-2</v>
       </c>
       <c r="D98">
-        <v>4.1821561338288848E-3</v>
+        <v>-2.7310289227048371E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>38383</v>
+        <v>36980</v>
       </c>
       <c r="B99">
-        <v>-2.2420779262730891E-2</v>
+        <v>-5.5989582422716122E-2</v>
       </c>
       <c r="C99">
-        <v>-7.0422535211267512E-3</v>
+        <v>-5.6497175141242861E-2</v>
       </c>
       <c r="D99">
-        <v>-1.5810581520900761E-2</v>
+        <v>-3.9266473269788597E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>38411</v>
+        <v>37011</v>
       </c>
       <c r="B100">
-        <v>2.0904196328444868E-2</v>
+        <v>7.0443581127132671E-2</v>
       </c>
       <c r="C100">
-        <v>2.5235032162295831E-2</v>
+        <v>4.4411177644710698E-2</v>
       </c>
       <c r="D100">
-        <v>3.9338609826816029E-2</v>
+        <v>4.2057586541572212E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>38442</v>
+        <v>37042</v>
       </c>
       <c r="B101">
-        <v>-1.828059876209787E-2</v>
+        <v>8.3257262171789748E-3</v>
       </c>
       <c r="C101">
-        <v>-1.7696267696267639E-2</v>
+        <v>1.17056856187292E-2</v>
       </c>
       <c r="D101">
-        <v>-2.3222498680539719E-2</v>
+        <v>1.5626616992652439E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>38471</v>
+        <v>37071</v>
       </c>
       <c r="B102">
-        <v>-1.873502197635379E-2</v>
+        <v>-2.382993502174735E-2</v>
       </c>
       <c r="C102">
-        <v>-7.0422535211267512E-3</v>
+        <v>-3.5419126328216639E-3</v>
       </c>
       <c r="D102">
-        <v>-2.0223851794673901E-2</v>
+        <v>1.1208477684940821E-3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>38503</v>
+        <v>37103</v>
       </c>
       <c r="B103">
-        <v>3.22243976124994E-2</v>
+        <v>-1.019595986584465E-2</v>
       </c>
       <c r="C103">
-        <v>1.7153224476331941E-2</v>
+        <v>-1.161137440758298E-2</v>
       </c>
       <c r="D103">
-        <v>2.3319940124477911E-2</v>
+        <v>-2.2595419847328269E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>38533</v>
+        <v>37134</v>
       </c>
       <c r="B104">
-        <v>1.497311552694391E-3</v>
+        <v>-5.9332442536880192E-2</v>
       </c>
       <c r="C104">
-        <v>1.3296578563321001E-2</v>
+        <v>1.174778230640139E-2</v>
       </c>
       <c r="D104">
-        <v>1.7553314342905631E-2</v>
+        <v>-9.0596688534833048E-3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>38562</v>
+        <v>37162</v>
       </c>
       <c r="B105">
-        <v>3.8261138056581163E-2</v>
+        <v>-8.1593106807480775E-2</v>
       </c>
       <c r="C105">
-        <v>2.1763482157145079E-2</v>
+        <v>-0.1061611374407584</v>
       </c>
       <c r="D105">
-        <v>2.1563138382386441E-2</v>
+        <v>-8.2597730138713743E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>38595</v>
+        <v>37195</v>
       </c>
       <c r="B106">
-        <v>-9.3742031372994195E-3</v>
+        <v>1.3022145952955141E-2</v>
       </c>
       <c r="C106">
-        <v>6.1080657791698911E-3</v>
+        <v>1.9618239660657451E-2</v>
       </c>
       <c r="D106">
-        <v>8.14694119389614E-4</v>
+        <v>2.5200458190148818E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>38625</v>
+        <v>37225</v>
       </c>
       <c r="B107">
-        <v>7.9921895110084407E-3</v>
+        <v>7.7976714210110876E-2</v>
       </c>
       <c r="C107">
-        <v>1.8991282689912788E-2</v>
+        <v>4.3421736869474932E-2</v>
       </c>
       <c r="D107">
-        <v>2.55309701768669E-2</v>
+        <v>5.4844606946983447E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>38656</v>
+        <v>37256</v>
       </c>
       <c r="B108">
-        <v>-2.365061461424078E-2</v>
+        <v>5.6164504244151647E-3</v>
       </c>
       <c r="C108">
-        <v>-2.215093186678874E-2</v>
+        <v>2.94044355843508E-2</v>
       </c>
       <c r="D108">
-        <v>-2.9874440756242019E-2</v>
+        <v>1.2348353552859679E-2</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>38686</v>
+        <v>37287</v>
       </c>
       <c r="B109">
-        <v>4.3952449343138238E-2</v>
+        <v>-9.7984159002997284E-3</v>
       </c>
       <c r="C109">
-        <v>2.3590064052491751E-2</v>
+        <v>1.2103606874847019E-3</v>
       </c>
       <c r="D109">
-        <v>3.1612615293067581E-2</v>
+        <v>7.0618446394179468E-3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>38716</v>
+        <v>37315</v>
       </c>
       <c r="B110">
-        <v>-1.8992500397279071E-3</v>
+        <v>-1.7936595797452441E-2</v>
       </c>
       <c r="C110">
-        <v>2.029914529914523E-2</v>
+        <v>2.756286266924568E-2</v>
       </c>
       <c r="D110">
-        <v>-3.071598529093655E-2</v>
+        <v>9.3497662558434946E-3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>38748</v>
+        <v>37344</v>
       </c>
       <c r="B111">
-        <v>2.4014349803421989E-2</v>
+        <v>3.3242833691122582E-2</v>
       </c>
       <c r="C111">
-        <v>3.0665669409125181E-2</v>
+        <v>5.2000000000000053E-2</v>
       </c>
       <c r="D111">
-        <v>4.5748716804284717E-2</v>
+        <v>4.621052631578948E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>38776</v>
+        <v>37376</v>
       </c>
       <c r="B112">
-        <v>5.7251836610330287E-3</v>
+        <v>-5.8155331774833792E-2</v>
       </c>
       <c r="C112">
-        <v>1.7416545718431651E-3</v>
+        <v>1.5432789085215729E-2</v>
       </c>
       <c r="D112">
-        <v>8.5360648740917533E-4</v>
+        <v>2.1128886205854509E-3</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>38807</v>
+        <v>37407</v>
       </c>
       <c r="B113">
-        <v>1.650427941827326E-2</v>
+        <v>-5.9334525984471309E-3</v>
       </c>
       <c r="C113">
-        <v>5.9403071573458366E-3</v>
+        <v>1.960352422907485E-2</v>
       </c>
       <c r="D113">
-        <v>1.343283582089572E-2</v>
+        <v>1.104417670682745E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>38835</v>
+        <v>37435</v>
       </c>
       <c r="B114">
-        <v>1.26322619101642E-2</v>
+        <v>-7.3753215659305593E-2</v>
       </c>
       <c r="C114">
-        <v>1.5987325363675531E-2</v>
+        <v>-5.530352127889393E-2</v>
       </c>
       <c r="D114">
-        <v>2.2441966477312562E-2</v>
+        <v>-4.5779543197616679E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>38868</v>
+        <v>37468</v>
       </c>
       <c r="B115">
-        <v>-3.012114954292611E-2</v>
+        <v>-7.8819825177108727E-2</v>
       </c>
       <c r="C115">
-        <v>-2.5800963992061329E-2</v>
+        <v>-2.4468328378687398E-2</v>
       </c>
       <c r="D115">
-        <v>-4.4653268399753032E-2</v>
+        <v>-7.5866375273181408E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>38898</v>
+        <v>37498</v>
       </c>
       <c r="B116">
-        <v>2.250352320004589E-3</v>
+        <v>6.8014963105311743E-3</v>
       </c>
       <c r="C116">
-        <v>8.7310826542497111E-4</v>
+        <v>1.1954992967651229E-2</v>
       </c>
       <c r="D116">
-        <v>8.6157380815632401E-4</v>
+        <v>7.432432432432412E-3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>38929</v>
+        <v>37529</v>
       </c>
       <c r="B117">
-        <v>4.8731225052658367E-3</v>
+        <v>-0.1048523017138578</v>
       </c>
       <c r="C117">
-        <v>9.8865949403894593E-3</v>
+        <v>-3.9842483205929979E-2</v>
       </c>
       <c r="D117">
-        <v>-2.044476327116207E-2</v>
+        <v>-8.741336910350983E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>38960</v>
+        <v>37560</v>
       </c>
       <c r="B118">
-        <v>2.1822706551275939E-2</v>
+        <v>8.2283577856490764E-2</v>
       </c>
       <c r="C118">
-        <v>1.727613014684715E-2</v>
+        <v>9.6501809408926498E-3</v>
       </c>
       <c r="D118">
-        <v>2.2848773343097539E-2</v>
+        <v>4.3238608525232758E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>38989</v>
+        <v>37589</v>
       </c>
       <c r="B119">
-        <v>2.6993262757318611E-2</v>
+        <v>6.1680846831268621E-2</v>
       </c>
       <c r="C119">
-        <v>8.4913671101047861E-3</v>
+        <v>2.0549581839904411E-2</v>
       </c>
       <c r="D119">
-        <v>1.4677453998711339E-2</v>
+        <v>4.3912175648702423E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>39021</v>
+        <v>37621</v>
       </c>
       <c r="B120">
-        <v>3.1517019852408179E-2</v>
+        <v>-5.6636203533963592E-2</v>
       </c>
       <c r="C120">
-        <v>1.9365703059219589E-2</v>
+        <v>-2.3413720440178531E-3</v>
       </c>
       <c r="D120">
-        <v>2.8789161727349692E-2</v>
+        <v>-3.2392306827128459E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>39051</v>
+        <v>37652</v>
       </c>
       <c r="B121">
-        <v>1.9885016391865129E-2</v>
+        <v>-2.4594781964335951E-2</v>
       </c>
       <c r="C121">
-        <v>1.734581497797372E-2</v>
+        <v>-1.079558789016666E-2</v>
       </c>
       <c r="D121">
-        <v>1.9753086419753041E-2</v>
+        <v>-1.673834708822497E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>39080</v>
+        <v>37680</v>
       </c>
       <c r="B122">
-        <v>1.3368285742685339E-2</v>
+        <v>-1.347877249970131E-2</v>
       </c>
       <c r="C122">
-        <v>1.407307171853844E-2</v>
+        <v>-4.982206405694023E-3</v>
       </c>
       <c r="D122">
-        <v>-1.57384987893463E-2</v>
+        <v>-1.7023288804823289E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>39113</v>
+        <v>37711</v>
       </c>
       <c r="B123">
-        <v>1.5040631483747459E-2</v>
+        <v>2.0601573896734671E-3</v>
       </c>
       <c r="C123">
-        <v>7.4726447824926554E-3</v>
+        <v>5.0071530758226679E-3</v>
       </c>
       <c r="D123">
-        <v>1.1753450867842069E-2</v>
+        <v>-7.9374624173181862E-3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>39141</v>
+        <v>37741</v>
       </c>
       <c r="B124">
-        <v>-1.96177987861238E-2</v>
+        <v>8.4611682310554936E-2</v>
       </c>
       <c r="C124">
-        <v>-1.58940397351004E-3</v>
+        <v>4.2941874258600299E-2</v>
       </c>
       <c r="D124">
-        <v>-9.9959475888152793E-3</v>
+        <v>7.7827615468541778E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>39171</v>
+        <v>37771</v>
       </c>
       <c r="B125">
-        <v>1.1602031497115251E-2</v>
+        <v>5.4835446181715992E-2</v>
       </c>
       <c r="C125">
-        <v>9.1536216503051993E-3</v>
+        <v>6.0054595086442182E-2</v>
       </c>
       <c r="D125">
-        <v>1.589575658343545E-2</v>
+        <v>7.2207850635474191E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>39202</v>
+        <v>37802</v>
       </c>
       <c r="B126">
-        <v>4.4295958171350902E-2</v>
+        <v>1.066253484064195E-2</v>
       </c>
       <c r="C126">
-        <v>1.8929932956487591E-2</v>
+        <v>2.5751072961373241E-2</v>
       </c>
       <c r="D126">
-        <v>3.2972936673158371E-2</v>
+        <v>2.7903073534039539E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>39233</v>
+        <v>37833</v>
       </c>
       <c r="B127">
-        <v>3.3920043014833652E-2</v>
+        <v>1.8027061147092519E-2</v>
       </c>
       <c r="C127">
-        <v>2.2706747516449299E-2</v>
+        <v>4.3933054393305859E-3</v>
       </c>
       <c r="D127">
-        <v>3.5040956962683723E-2</v>
+        <v>1.132768649862226E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>39262</v>
+        <v>37862</v>
       </c>
       <c r="B128">
-        <v>-1.464692737259266E-2</v>
+        <v>2.0626336627332709E-2</v>
       </c>
       <c r="C128">
-        <v>5.5506496783146453E-3</v>
+        <v>1.4163715892522299E-2</v>
       </c>
       <c r="D128">
-        <v>-1.5702531248037439E-3</v>
+        <v>2.5630676084762879E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>39294</v>
+        <v>37894</v>
       </c>
       <c r="B129">
-        <v>-3.131055515282466E-2</v>
+        <v>-1.088659787016044E-2</v>
       </c>
       <c r="C129">
-        <v>-7.5272864132469586E-4</v>
+        <v>2.4645717806531131E-2</v>
       </c>
       <c r="D129">
-        <v>-4.6426774031202767E-2</v>
+        <v>1.4167650531286879E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>39325</v>
+        <v>37925</v>
       </c>
       <c r="B130">
-        <v>1.2832996906726899E-2</v>
+        <v>5.3527021441143408E-2</v>
       </c>
       <c r="C130">
-        <v>-4.7708725674828756E-3</v>
+        <v>3.8685107235919107E-2</v>
       </c>
       <c r="D130">
-        <v>4.0902493732681844E-3</v>
+        <v>6.121459060923562E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>39353</v>
+        <v>37953</v>
       </c>
       <c r="B131">
-        <v>3.8698901775807037E-2</v>
+        <v>1.0921042743629259E-2</v>
       </c>
       <c r="C131">
-        <v>3.0780875488835679E-2</v>
+        <v>1.0999614048629921E-2</v>
       </c>
       <c r="D131">
-        <v>3.6005256241787187E-2</v>
+        <v>1.7277630496389081E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>39386</v>
+        <v>37986</v>
       </c>
       <c r="B132">
-        <v>1.3566681611002719E-2</v>
+        <v>5.0322738152900108E-2</v>
       </c>
       <c r="C132">
-        <v>2.9127401786807061E-2</v>
+        <v>2.59591525100209E-2</v>
       </c>
       <c r="D132">
-        <v>3.6276002029426602E-2</v>
+        <v>4.2415528396836821E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>39416</v>
+        <v>38016</v>
       </c>
       <c r="B133">
-        <v>-3.873260426669789E-2</v>
+        <v>1.9770063220694519E-2</v>
       </c>
       <c r="C133">
-        <v>-2.3665120704007721E-2</v>
+        <v>2.325581395348841E-2</v>
       </c>
       <c r="D133">
-        <v>-4.2656058751530002E-2</v>
+        <v>2.5086206896551611E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>39447</v>
+        <v>38044</v>
       </c>
       <c r="B134">
-        <v>-1.1331830065802181E-2</v>
+        <v>1.357082273112797E-2</v>
       </c>
       <c r="C134">
-        <v>-9.0133982947624425E-3</v>
+        <v>1.527272727272733E-2</v>
       </c>
       <c r="D134">
-        <v>-7.9652240618807157E-2</v>
+        <v>1.505340173240266E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>39478</v>
+        <v>38077</v>
       </c>
       <c r="B135">
-        <v>-6.0461125055740528E-2</v>
+        <v>-1.319811589345499E-2</v>
       </c>
       <c r="C135">
-        <v>-3.3923303834808349E-2</v>
+        <v>4.6561604584527414E-3</v>
       </c>
       <c r="D135">
-        <v>-6.3971660762658922E-2</v>
+        <v>8.2850041425019949E-3</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>39507</v>
+        <v>38107</v>
       </c>
       <c r="B136">
-        <v>-2.5842646200798791E-2</v>
+        <v>-1.8921410227568099E-2</v>
       </c>
       <c r="C136">
-        <v>-1.653944020356124E-3</v>
+        <v>-2.6024955436720121E-2</v>
       </c>
       <c r="D136">
-        <v>-1.3505491243692489E-2</v>
+        <v>-3.7633525061626982E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>39538</v>
+        <v>38138</v>
       </c>
       <c r="B137">
-        <v>-9.0312459687080793E-3</v>
+        <v>1.712355538613974E-2</v>
       </c>
       <c r="C137">
-        <v>-8.7931693640881381E-3</v>
+        <v>0</v>
       </c>
       <c r="D137">
-        <v>-1.361516473597113E-2</v>
+        <v>3.8422131147539669E-3</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>39568</v>
+        <v>38168</v>
       </c>
       <c r="B138">
-        <v>4.7662218564868297E-2</v>
+        <v>1.8492452306762219E-2</v>
       </c>
       <c r="C138">
-        <v>1.5942401645667289E-2</v>
+        <v>1.043191800878485E-2</v>
       </c>
       <c r="D138">
-        <v>3.8587661099672037E-2</v>
+        <v>2.2794930679595149E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>39598</v>
+        <v>38198</v>
       </c>
       <c r="B139">
-        <v>1.511636679114337E-2</v>
+        <v>-3.221907041826344E-2</v>
       </c>
       <c r="C139">
-        <v>6.9602632245000517E-3</v>
+        <v>-7.0639376924470643E-3</v>
       </c>
       <c r="D139">
-        <v>1.4244805051765839E-2</v>
+        <v>-3.3513513513513497E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>39629</v>
+        <v>38230</v>
       </c>
       <c r="B140">
-        <v>-8.3498952731668075E-2</v>
+        <v>2.4364850454323679E-3</v>
       </c>
       <c r="C140">
-        <v>-3.7325625235641542E-2</v>
+        <v>1.3498723093761541E-2</v>
       </c>
       <c r="D140">
-        <v>-6.7617461811337209E-2</v>
+        <v>1.8327310273618998E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>39660</v>
+        <v>38260</v>
       </c>
       <c r="B141">
-        <v>-8.9858311133582669E-3</v>
+        <v>1.00170902434491E-2</v>
       </c>
       <c r="C141">
-        <v>-9.7911227154047209E-3</v>
+        <v>2.1958243340532761E-2</v>
       </c>
       <c r="D141">
-        <v>-7.4384657193881543E-2</v>
+        <v>2.179974651457561E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>39689</v>
+        <v>38289</v>
       </c>
       <c r="B142">
-        <v>1.5453711363465411E-2</v>
+        <v>1.288455825995749E-2</v>
       </c>
       <c r="C142">
-        <v>-4.746209624258424E-3</v>
+        <v>1.1976047904191709E-2</v>
       </c>
       <c r="D142">
-        <v>-1.015015518832307E-2</v>
+        <v>1.5711568676093579E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>39721</v>
+        <v>38321</v>
       </c>
       <c r="B143">
-        <v>-9.4373125900945154E-2</v>
+        <v>4.4510355674440387E-2</v>
       </c>
       <c r="C143">
-        <v>-4.0137766591601509E-2</v>
+        <v>3.4980856247824432E-2</v>
       </c>
       <c r="D143">
-        <v>-8.6016949152542432E-2</v>
+        <v>5.1208988032239722E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>39752</v>
+        <v>38352</v>
       </c>
       <c r="B144">
-        <v>-0.16518713768222609</v>
+        <v>3.015217165239692E-2</v>
       </c>
       <c r="C144">
-        <v>-8.1562241236544208E-2</v>
+        <v>2.6736169497225459E-2</v>
       </c>
       <c r="D144">
-        <v>-0.15122855818266101</v>
+        <v>4.1821561338288848E-3</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>39780</v>
+        <v>38383</v>
       </c>
       <c r="B145">
-        <v>-6.9606295757009495E-2</v>
+        <v>-2.2420779262730891E-2</v>
       </c>
       <c r="C145">
-        <v>-3.5762584522915031E-2</v>
+        <v>-7.0422535211267512E-3</v>
       </c>
       <c r="D145">
-        <v>-5.1015949311776332E-2</v>
+        <v>-1.5810581520900761E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>39813</v>
+        <v>38411</v>
       </c>
       <c r="B146">
-        <v>9.8356319922103808E-3</v>
+        <v>2.0904196328444868E-2</v>
       </c>
       <c r="C146">
-        <v>2.2284556646407831E-2</v>
+        <v>2.5235032162295831E-2</v>
       </c>
       <c r="D146">
-        <v>-1.7267180844940939E-3</v>
+        <v>3.9338609826816029E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>39843</v>
+        <v>38442</v>
       </c>
       <c r="B147">
-        <v>-8.2114220558833106E-2</v>
+        <v>-1.828059876209787E-2</v>
       </c>
       <c r="C147">
-        <v>-4.7256097560975492E-2</v>
+        <v>-1.7696267696267639E-2</v>
       </c>
       <c r="D147">
-        <v>-8.2103321033210386E-2</v>
+        <v>-2.3222498680539719E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>39871</v>
+        <v>38471</v>
       </c>
       <c r="B148">
-        <v>-0.1074492591633385</v>
+        <v>-1.873502197635379E-2</v>
       </c>
       <c r="C148">
-        <v>-4.9599999999999977E-2</v>
+        <v>-7.0422535211267512E-3</v>
       </c>
       <c r="D148">
-        <v>-8.78140703517587E-2</v>
+        <v>-2.0223851794673901E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>39903</v>
+        <v>38503</v>
       </c>
       <c r="B149">
-        <v>8.3483760485357994E-2</v>
+        <v>3.22243976124994E-2</v>
       </c>
       <c r="C149">
-        <v>5.4882154882154748E-2</v>
+        <v>1.7153224476331941E-2</v>
       </c>
       <c r="D149">
-        <v>7.1753202038286723E-2</v>
+        <v>2.3319940124477911E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>39933</v>
+        <v>38533</v>
       </c>
       <c r="B150">
-        <v>9.9346833915773258E-2</v>
+        <v>1.497311552694391E-3</v>
       </c>
       <c r="C150">
-        <v>3.782317267794455E-2</v>
+        <v>1.3296578563321001E-2</v>
       </c>
       <c r="D150">
-        <v>6.3351323567206519E-2</v>
+        <v>1.7553314342905631E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>39962</v>
+        <v>38562</v>
       </c>
       <c r="B151">
-        <v>5.845326969398057E-2</v>
+        <v>3.8261138056581163E-2</v>
       </c>
       <c r="C151">
-        <v>6.6430878056281673E-2</v>
+        <v>2.1763482157145079E-2</v>
       </c>
       <c r="D151">
-        <v>8.9425981873111793E-2</v>
+        <v>2.1563138382386441E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>39994</v>
+        <v>38595</v>
       </c>
       <c r="B152">
-        <v>-6.7349747075051702E-4</v>
+        <v>-9.3742031372994195E-3</v>
       </c>
       <c r="C152">
-        <v>9.3727469358328985E-3</v>
+        <v>6.1080657791698911E-3</v>
       </c>
       <c r="D152">
-        <v>2.9950083194674182E-3</v>
+        <v>8.14694119389614E-4</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>40025</v>
+        <v>38625</v>
       </c>
       <c r="B153">
-        <v>7.4605770769258006E-2</v>
+        <v>7.9921895110084407E-3</v>
       </c>
       <c r="C153">
-        <v>5.1857142857142817E-2</v>
+        <v>1.8991282689912788E-2</v>
       </c>
       <c r="D153">
-        <v>6.6357000663570087E-2</v>
+        <v>2.55309701768669E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>40056</v>
+        <v>38656</v>
       </c>
       <c r="B154">
-        <v>3.6939361603728793E-2</v>
+        <v>-2.365061461424078E-2</v>
       </c>
       <c r="C154">
-        <v>2.0100502512562901E-2</v>
+        <v>-2.215093186678874E-2</v>
       </c>
       <c r="D154">
-        <v>2.572080481227967E-2</v>
+        <v>-2.9874440756242019E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>40086</v>
+        <v>38686</v>
       </c>
       <c r="B155">
-        <v>3.5457382319389767E-2</v>
+        <v>4.3952449343138238E-2</v>
       </c>
       <c r="C155">
-        <v>2.52962321927841E-2</v>
+        <v>2.3590064052491751E-2</v>
       </c>
       <c r="D155">
-        <v>3.3265925176946258E-2</v>
+        <v>3.1612615293067581E-2</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>40116</v>
+        <v>38716</v>
       </c>
       <c r="B156">
-        <v>-1.9225166267922481E-2</v>
+        <v>-1.8992500397279071E-3</v>
       </c>
       <c r="C156">
-        <v>2.077652252954199E-3</v>
+        <v>2.029914529914523E-2</v>
       </c>
       <c r="D156">
-        <v>-8.0242685194245045E-3</v>
+        <v>-3.071598529093655E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>40147</v>
+        <v>38748</v>
       </c>
       <c r="B157">
-        <v>6.1606751377854208E-2</v>
+        <v>2.4014349803421989E-2</v>
       </c>
       <c r="C157">
-        <v>3.0970584423998911E-2</v>
+        <v>3.0665669409125181E-2</v>
       </c>
       <c r="D157">
-        <v>4.2024267534773507E-2</v>
+        <v>4.5748716804284717E-2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>40178</v>
+        <v>38776</v>
       </c>
       <c r="B158">
-        <v>1.90718924176565E-2</v>
+        <v>5.7251836610330287E-3</v>
       </c>
       <c r="C158">
-        <v>9.0497737556560764E-3</v>
+        <v>1.7416545718431651E-3</v>
       </c>
       <c r="D158">
-        <v>3.881473066363883E-3</v>
+        <v>8.5360648740917533E-4</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>40207</v>
+        <v>38807</v>
       </c>
       <c r="B159">
-        <v>-3.6342130085261222E-2</v>
+        <v>1.650427941827326E-2</v>
       </c>
       <c r="C159">
-        <v>-2.005480817140004E-2</v>
+        <v>5.9403071573458366E-3</v>
       </c>
       <c r="D159">
-        <v>-3.9136175028291247E-2</v>
+        <v>1.343283582089572E-2</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>40235</v>
+        <v>38835</v>
       </c>
       <c r="B160">
-        <v>3.1194582217129119E-2</v>
+        <v>1.26322619101642E-2</v>
       </c>
       <c r="C160">
-        <v>1.144019321215328E-3</v>
+        <v>1.5987325363675531E-2</v>
       </c>
       <c r="D160">
-        <v>4.1220924526450542E-3</v>
+        <v>2.2441966477312562E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>40268</v>
+        <v>38868</v>
       </c>
       <c r="B161">
-        <v>6.0905029973928437E-2</v>
+        <v>-3.012114954292611E-2</v>
       </c>
       <c r="C161">
-        <v>3.5424073133570211E-2</v>
+        <v>-2.5800963992061329E-2</v>
       </c>
       <c r="D161">
-        <v>5.6690450591339918E-2</v>
+        <v>-4.4653268399753032E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>40298</v>
+        <v>38898</v>
       </c>
       <c r="B162">
-        <v>1.5491188768105509E-2</v>
+        <v>2.250352320004589E-3</v>
       </c>
       <c r="C162">
-        <v>-2.0846106683016789E-3</v>
+        <v>8.7310826542497111E-4</v>
       </c>
       <c r="D162">
-        <v>-7.6773656461012196E-3</v>
+        <v>8.6157380815632401E-4</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>40329</v>
+        <v>38929</v>
       </c>
       <c r="B163">
-        <v>-7.9482313423449469E-2</v>
+        <v>4.8731225052658367E-3</v>
       </c>
       <c r="C163">
-        <v>-6.2423199803391498E-2</v>
+        <v>9.8865949403894593E-3</v>
       </c>
       <c r="D163">
-        <v>-9.9179716629381076E-2</v>
+        <v>-2.044476327116207E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>40359</v>
+        <v>38960</v>
       </c>
       <c r="B164">
-        <v>-5.1734265687426888E-2</v>
+        <v>2.1822706551275939E-2</v>
       </c>
       <c r="C164">
-        <v>-9.9606815203143739E-3</v>
+        <v>1.727613014684715E-2</v>
       </c>
       <c r="D164">
-        <v>-2.0074503311258259E-2</v>
+        <v>2.2848773343097539E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>40389</v>
+        <v>38989</v>
       </c>
       <c r="B165">
-        <v>6.8300611122255273E-2</v>
+        <v>2.6993262757318611E-2</v>
       </c>
       <c r="C165">
-        <v>4.8583531903626957E-2</v>
+        <v>8.4913671101047861E-3</v>
       </c>
       <c r="D165">
-        <v>7.666314677930286E-2</v>
+        <v>1.4677453998711339E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>40421</v>
+        <v>39021</v>
       </c>
       <c r="B166">
-        <v>-4.4980571297091321E-2</v>
+        <v>3.1517019852408179E-2</v>
       </c>
       <c r="C166">
-        <v>-1.2750915288473609E-2</v>
+        <v>1.9365703059219589E-2</v>
       </c>
       <c r="D166">
-        <v>-2.7069438995684481E-2</v>
+        <v>2.8789161727349692E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>40451</v>
+        <v>39051</v>
       </c>
       <c r="B167">
-        <v>8.9553468446201823E-2</v>
+        <v>1.9885016391865129E-2</v>
       </c>
       <c r="C167">
-        <v>6.0613810741687812E-2</v>
+        <v>1.734581497797372E-2</v>
       </c>
       <c r="D167">
-        <v>9.6169354838709697E-2</v>
+        <v>1.9753086419753041E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>40480</v>
+        <v>39080</v>
       </c>
       <c r="B168">
-        <v>3.820241139934244E-2</v>
+        <v>1.3368285742685339E-2</v>
       </c>
       <c r="C168">
-        <v>2.1461297323366321E-2</v>
+        <v>1.407307171853844E-2</v>
       </c>
       <c r="D168">
-        <v>3.6968916681993758E-2</v>
+        <v>-1.57384987893463E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>40512</v>
+        <v>39113</v>
       </c>
       <c r="B169">
-        <v>2.0809145252043141E-5</v>
+        <v>1.5040631483747459E-2</v>
       </c>
       <c r="C169">
-        <v>-2.101038715769599E-2</v>
+        <v>7.4726447824926554E-3</v>
       </c>
       <c r="D169">
-        <v>-3.0684639943242331E-2</v>
+        <v>1.1753450867842069E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>40543</v>
+        <v>39141</v>
       </c>
       <c r="B170">
-        <v>6.6821671172160757E-2</v>
+        <v>-1.96177987861238E-2</v>
       </c>
       <c r="C170">
-        <v>3.9426091150229103E-2</v>
+        <v>-1.58940397351004E-3</v>
       </c>
       <c r="D170">
-        <v>5.6358645928636708E-2</v>
+        <v>-9.9959475888152793E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>40574</v>
+        <v>39171</v>
       </c>
       <c r="B171">
-        <v>2.330026796885809E-2</v>
+        <v>1.1602031497115251E-2</v>
       </c>
       <c r="C171">
-        <v>9.0476742837257706E-3</v>
+        <v>9.1536216503051993E-3</v>
       </c>
       <c r="D171">
-        <v>1.2038801316473171E-2</v>
+        <v>1.589575658343545E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>40602</v>
+        <v>39202</v>
       </c>
       <c r="B172">
-        <v>3.473735905922859E-2</v>
+        <v>4.4295958171350902E-2</v>
       </c>
       <c r="C172">
-        <v>1.379468904471781E-2</v>
+        <v>1.8929932956487591E-2</v>
       </c>
       <c r="D172">
-        <v>2.2593068035943631E-2</v>
+        <v>3.2972936673158371E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>40633</v>
+        <v>39233</v>
       </c>
       <c r="B173">
-        <v>1.067351505399383E-4</v>
+        <v>3.3920043014833652E-2</v>
       </c>
       <c r="C173">
-        <v>2.948180065767136E-3</v>
+        <v>2.2706747516449299E-2</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>3.5040956962683723E-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>40662</v>
+        <v>39262</v>
       </c>
       <c r="B174">
-        <v>2.896168617038852E-2</v>
+        <v>-1.464692737259266E-2</v>
       </c>
       <c r="C174">
-        <v>3.5161107970604899E-2</v>
+        <v>5.5506496783146453E-3</v>
       </c>
       <c r="D174">
-        <v>5.4648924596200521E-2</v>
+        <v>-1.5702531248037439E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>40694</v>
+        <v>39294</v>
       </c>
       <c r="B175">
-        <v>-1.121438052130541E-2</v>
+        <v>-3.131055515282466E-2</v>
       </c>
       <c r="C175">
-        <v>-4.6963739624290568E-3</v>
+        <v>-7.5272864132469586E-4</v>
       </c>
       <c r="D175">
-        <v>-1.3172512299634899E-2</v>
+        <v>-4.6426774031202767E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>40724</v>
+        <v>39325</v>
       </c>
       <c r="B176">
-        <v>-1.688722380217322E-2</v>
+        <v>1.2832996906726899E-2</v>
       </c>
       <c r="C176">
-        <v>-7.5716010095467912E-3</v>
+        <v>-4.7708725674828756E-3</v>
       </c>
       <c r="D176">
-        <v>-1.117722740431004E-2</v>
+        <v>4.0902493732681844E-3</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>40753</v>
+        <v>39353</v>
       </c>
       <c r="B177">
-        <v>-2.0004527896391289E-2</v>
+        <v>3.8698901775807037E-2</v>
       </c>
       <c r="C177">
-        <v>3.0959752321981782E-3</v>
+        <v>3.0780875488835679E-2</v>
       </c>
       <c r="D177">
-        <v>-6.3430104903635653E-3</v>
+        <v>3.6005256241787187E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>40786</v>
+        <v>39386</v>
       </c>
       <c r="B178">
-        <v>-5.4975773696982921E-2</v>
+        <v>1.3566681611002719E-2</v>
       </c>
       <c r="C178">
-        <v>-2.766754850088193E-2</v>
+        <v>2.9127401786807061E-2</v>
       </c>
       <c r="D178">
-        <v>-5.8024388247810872E-2</v>
+        <v>3.6276002029426602E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>40816</v>
+        <v>39416</v>
       </c>
       <c r="B179">
-        <v>-6.9449285465319033E-2</v>
+        <v>-3.873260426669789E-2</v>
       </c>
       <c r="C179">
-        <v>-4.3985942636889153E-2</v>
+        <v>-2.3665120704007721E-2</v>
       </c>
       <c r="D179">
-        <v>-7.723718505647259E-2</v>
+        <v>-4.2656058751530002E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>40847</v>
+        <v>39447</v>
       </c>
       <c r="B180">
-        <v>0.10914728838069571</v>
+        <v>-1.1331830065802181E-2</v>
       </c>
       <c r="C180">
-        <v>4.5061069607494231E-2</v>
+        <v>-9.0133982947624425E-3</v>
       </c>
       <c r="D180">
-        <v>8.1159966104886516E-2</v>
+        <v>-7.9652240618807157E-2</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>40877</v>
+        <v>39478</v>
       </c>
       <c r="B181">
-        <v>-4.063817574707751E-3</v>
+        <v>-6.0461125055740528E-2</v>
       </c>
       <c r="C181">
-        <v>-4.8791557925790263E-3</v>
+        <v>-3.3923303834808349E-2</v>
       </c>
       <c r="D181">
-        <v>-1.097274231472611E-2</v>
+        <v>-6.3971660762658922E-2</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>40907</v>
+        <v>39507</v>
       </c>
       <c r="B182">
-        <v>1.0439951504007229E-2</v>
+        <v>-2.5842646200798791E-2</v>
       </c>
       <c r="C182">
-        <v>-5.7012542759404816E-4</v>
+        <v>-1.653944020356124E-3</v>
       </c>
       <c r="D182">
-        <v>-2.7472043673505201E-2</v>
+        <v>-1.3505491243692489E-2</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>40939</v>
+        <v>39538</v>
       </c>
       <c r="B183">
-        <v>4.6374451653443227E-2</v>
+        <v>-9.0312459687080793E-3</v>
       </c>
       <c r="C183">
-        <v>2.3274386765544719E-2</v>
+        <v>-8.7931693640881381E-3</v>
       </c>
       <c r="D183">
-        <v>3.6939791760977718E-2</v>
+        <v>-1.361516473597113E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>40968</v>
+        <v>39568</v>
       </c>
       <c r="B184">
-        <v>4.3405476696676493E-2</v>
+        <v>4.7662218564868297E-2</v>
       </c>
       <c r="C184">
-        <v>2.765079719032237E-2</v>
+        <v>1.5942401645667289E-2</v>
       </c>
       <c r="D184">
-        <v>4.3045490264559387E-2</v>
+        <v>3.8587661099672037E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>40998</v>
+        <v>39598</v>
       </c>
       <c r="B185">
-        <v>3.2156518124625062E-2</v>
+        <v>1.511636679114337E-2</v>
       </c>
       <c r="C185">
-        <v>8.6796137571878429E-3</v>
+        <v>6.9602632245000517E-3</v>
       </c>
       <c r="D185">
-        <v>1.289134438305717E-2</v>
+        <v>1.4244805051765839E-2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>41029</v>
+        <v>39629</v>
       </c>
       <c r="B186">
-        <v>-6.6753272709102474E-3</v>
+        <v>-8.3498952731668075E-2</v>
       </c>
       <c r="C186">
-        <v>-9.5729805313542471E-3</v>
+        <v>-3.7325625235641542E-2</v>
       </c>
       <c r="D186">
-        <v>-1.6280991735537209E-2</v>
+        <v>-6.7617461811337209E-2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>41060</v>
+        <v>39660</v>
       </c>
       <c r="B187">
-        <v>-6.0055632683447047E-2</v>
+        <v>-8.9858311133582669E-3</v>
       </c>
       <c r="C187">
-        <v>-4.430929626411817E-2</v>
+        <v>-9.7911227154047209E-3</v>
       </c>
       <c r="D187">
-        <v>-7.5611190456187471E-2</v>
+        <v>-7.4384657193881543E-2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>41089</v>
+        <v>39689</v>
       </c>
       <c r="B188">
-        <v>4.0566784416746549E-2</v>
+        <v>1.5453711363465411E-2</v>
       </c>
       <c r="C188">
-        <v>3.7272727272727353E-2</v>
+        <v>-4.746209624258424E-3</v>
       </c>
       <c r="D188">
-        <v>5.7529764609651979E-2</v>
+        <v>-1.015015518832307E-2</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>41121</v>
+        <v>39721</v>
       </c>
       <c r="B189">
-        <v>1.179252560618615E-2</v>
+        <v>-9.4373125900945154E-2</v>
       </c>
       <c r="C189">
-        <v>7.778264680105007E-3</v>
+        <v>-4.0137766591601509E-2</v>
       </c>
       <c r="D189">
-        <v>4.1251289102783861E-3</v>
+        <v>-8.6016949152542432E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>41152</v>
+        <v>39752</v>
       </c>
       <c r="B190">
-        <v>2.5052582569119689E-2</v>
+        <v>-0.16518713768222609</v>
       </c>
       <c r="C190">
-        <v>1.6414827698662871E-2</v>
+        <v>-8.1562241236544208E-2</v>
       </c>
       <c r="D190">
-        <v>2.173913043478248E-2</v>
+        <v>-0.15122855818266101</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>41180</v>
+        <v>39780</v>
       </c>
       <c r="B191">
-        <v>2.535615643610489E-2</v>
+        <v>-6.9606295757009495E-2</v>
       </c>
       <c r="C191">
-        <v>1.518716577540102E-2</v>
+        <v>-3.5762584522915031E-2</v>
       </c>
       <c r="D191">
-        <v>2.6051264868487189E-2</v>
+        <v>-5.1015949311776332E-2</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>41213</v>
+        <v>39813</v>
       </c>
       <c r="B192">
-        <v>-1.8198040917784649E-2</v>
+        <v>9.8356319922103808E-3</v>
       </c>
       <c r="C192">
-        <v>-5.5836493889591674E-3</v>
+        <v>2.2284556646407831E-2</v>
       </c>
       <c r="D192">
-        <v>-9.2252428769694639E-3</v>
+        <v>-1.7267180844940939E-3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>41243</v>
+        <v>39843</v>
       </c>
       <c r="B193">
-        <v>5.6950755476743442E-3</v>
+        <v>-8.2114220558833106E-2</v>
       </c>
       <c r="C193">
-        <v>6.5684924250450924E-3</v>
+        <v>-4.7256097560975492E-2</v>
       </c>
       <c r="D193">
-        <v>9.3111404087014016E-3</v>
+        <v>-8.2103321033210386E-2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>41274</v>
+        <v>39871</v>
       </c>
       <c r="B194">
-        <v>8.9624667623695586E-3</v>
+        <v>-0.1074492591633385</v>
       </c>
       <c r="C194">
-        <v>1.8524365856225519E-2</v>
+        <v>-4.9599999999999977E-2</v>
       </c>
       <c r="D194">
-        <v>-2.0573108008817061E-2</v>
+        <v>-8.78140703517587E-2</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>41305</v>
+        <v>39903</v>
       </c>
       <c r="B195">
-        <v>5.1190367546974917E-2</v>
+        <v>8.3483760485357994E-2</v>
       </c>
       <c r="C195">
-        <v>2.542110158106858E-2</v>
+        <v>5.4882154882154748E-2</v>
       </c>
       <c r="D195">
-        <v>3.8592981578728043E-2</v>
+        <v>7.1753202038286723E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>41333</v>
+        <v>39933</v>
       </c>
       <c r="B196">
-        <v>1.2758775150196969E-2</v>
+        <v>9.9346833915773258E-2</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>3.782317267794455E-2</v>
       </c>
       <c r="D196">
-        <v>-1.1235955056180249E-3</v>
+        <v>6.3351323567206519E-2</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>41362</v>
+        <v>39962</v>
       </c>
       <c r="B197">
-        <v>3.7975595487522502E-2</v>
+        <v>5.845326969398057E-2</v>
       </c>
       <c r="C197">
-        <v>1.09845812758238E-2</v>
+        <v>6.6430878056281673E-2</v>
       </c>
       <c r="D197">
-        <v>1.8560179977502811E-2</v>
+        <v>8.9425981873111793E-2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>41394</v>
+        <v>39994</v>
       </c>
       <c r="B198">
-        <v>1.921231907868726E-2</v>
+        <v>-6.7349747075051702E-4</v>
       </c>
       <c r="C198">
-        <v>2.45215311004785E-2</v>
+        <v>9.3727469358328985E-3</v>
       </c>
       <c r="D198">
-        <v>3.5418474402461042E-2</v>
+        <v>2.9950083194674182E-3</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>41425</v>
+        <v>40025</v>
       </c>
       <c r="B199">
-        <v>2.3578328712202001E-2</v>
+        <v>7.4605770769258006E-2</v>
       </c>
       <c r="C199">
-        <v>-6.2268923915158592E-3</v>
+        <v>5.1857142857142817E-2</v>
       </c>
       <c r="D199">
-        <v>-9.9040073137283136E-3</v>
+        <v>6.6357000663570087E-2</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>41453</v>
+        <v>40056</v>
       </c>
       <c r="B200">
-        <v>-1.333013873753386E-2</v>
+        <v>3.6939361603728793E-2</v>
       </c>
       <c r="C200">
-        <v>-2.0560015664773831E-2</v>
+        <v>2.0100502512562901E-2</v>
       </c>
       <c r="D200">
-        <v>-2.5623268698061089E-2</v>
+        <v>2.572080481227967E-2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>41486</v>
+        <v>40086</v>
       </c>
       <c r="B201">
-        <v>5.1677053517282363E-2</v>
+        <v>3.5457382319389767E-2</v>
       </c>
       <c r="C201">
-        <v>2.7788884446221299E-2</v>
+        <v>2.52962321927841E-2</v>
       </c>
       <c r="D201">
-        <v>3.4825870646766122E-2</v>
+        <v>3.3265925176946258E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>41516</v>
+        <v>40116</v>
       </c>
       <c r="B202">
-        <v>-2.9992581999743639E-2</v>
+        <v>-1.9225166267922481E-2</v>
       </c>
       <c r="C202">
-        <v>-1.5950204240420041E-2</v>
+        <v>2.077652252954199E-3</v>
       </c>
       <c r="D202">
-        <v>-2.442002442002433E-2</v>
+        <v>-8.0242685194245045E-3</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>41547</v>
+        <v>40147</v>
       </c>
       <c r="B203">
-        <v>3.1681340849058381E-2</v>
+        <v>6.1606751377854208E-2</v>
       </c>
       <c r="C203">
-        <v>3.2417473809053021E-2</v>
+        <v>3.0970584423998911E-2</v>
       </c>
       <c r="D203">
-        <v>4.7715894868585629E-2</v>
+        <v>4.2024267534773507E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>41578</v>
+        <v>40178</v>
       </c>
       <c r="B204">
-        <v>4.6306794220500658E-2</v>
+        <v>1.90718924176565E-2</v>
       </c>
       <c r="C204">
-        <v>2.9676431169825879E-2</v>
+        <v>9.0497737556560764E-3</v>
       </c>
       <c r="D204">
-        <v>4.4572196505898047E-2</v>
+        <v>3.881473066363883E-3</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>41607</v>
+        <v>40207</v>
       </c>
       <c r="B205">
-        <v>2.9637719437288771E-2</v>
+        <v>-3.6342130085261222E-2</v>
       </c>
       <c r="C205">
-        <v>6.786909631833371E-3</v>
+        <v>-2.005480817140004E-2</v>
       </c>
       <c r="D205">
-        <v>1.4509327424773181E-2</v>
+        <v>-3.9136175028291247E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>41639</v>
+        <v>40235</v>
       </c>
       <c r="B206">
-        <v>2.5895759771180641E-2</v>
+        <v>3.1194582217129119E-2</v>
       </c>
       <c r="C206">
-        <v>5.6330224397451722E-3</v>
+        <v>1.144019321215328E-3</v>
       </c>
       <c r="D206">
-        <v>-2.3812878681132799E-2</v>
+        <v>4.1220924526450542E-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>41670</v>
+        <v>40268</v>
       </c>
       <c r="B207">
-        <v>-3.5248091589049728E-2</v>
+        <v>6.0905029973928437E-2</v>
       </c>
       <c r="C207">
-        <v>-1.9651056014692411E-2</v>
+        <v>3.5424073133570211E-2</v>
       </c>
       <c r="D207">
-        <v>-3.7456697459584243E-2</v>
+        <v>5.6690450591339918E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>41698</v>
+        <v>40298</v>
       </c>
       <c r="B208">
-        <v>4.5515583790803893E-2</v>
+        <v>1.5491188768105509E-2</v>
       </c>
       <c r="C208">
-        <v>3.0535781191457279E-2</v>
+        <v>-2.0846106683016789E-3</v>
       </c>
       <c r="D208">
-        <v>4.7761865486991129E-2</v>
+        <v>-7.6773656461012196E-3</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>41729</v>
+        <v>40329</v>
       </c>
       <c r="B209">
-        <v>8.3108478243316686E-3</v>
+        <v>-7.9482313423449469E-2</v>
       </c>
       <c r="C209">
-        <v>6.816942374113788E-3</v>
+        <v>-6.2423199803391498E-2</v>
       </c>
       <c r="D209">
-        <v>1.1664519822527589E-2</v>
+        <v>-9.9179716629381076E-2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>41759</v>
+        <v>40359</v>
       </c>
       <c r="B210">
-        <v>6.9515942491158436E-3</v>
+        <v>-5.1734265687426888E-2</v>
       </c>
       <c r="C210">
-        <v>1.4263789834792821E-2</v>
+        <v>-9.9606815203143739E-3</v>
       </c>
       <c r="D210">
-        <v>1.7825564122515351E-2</v>
+        <v>-2.0074503311258259E-2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>41789</v>
+        <v>40389</v>
       </c>
       <c r="B211">
-        <v>2.3206424542578041E-2</v>
+        <v>6.8300611122255273E-2</v>
       </c>
       <c r="C211">
-        <v>1.415220293724961E-2</v>
+        <v>4.8583531903626957E-2</v>
       </c>
       <c r="D211">
-        <v>1.5428452289943939E-2</v>
+        <v>7.666314677930286E-2</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>41820</v>
+        <v>40421</v>
       </c>
       <c r="B212">
-        <v>2.0633233335854321E-2</v>
+        <v>-4.4980571297091321E-2</v>
       </c>
       <c r="C212">
-        <v>8.1621906266455824E-3</v>
+        <v>-1.2750915288473609E-2</v>
       </c>
       <c r="D212">
-        <v>1.423584970227898E-2</v>
+        <v>-2.7069438995684481E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>41851</v>
+        <v>40451</v>
       </c>
       <c r="B213">
-        <v>-1.3437726629347059E-2</v>
+        <v>8.9553468446201823E-2</v>
       </c>
       <c r="C213">
-        <v>-1.5234613040828741E-2</v>
+        <v>6.0613810741687812E-2</v>
       </c>
       <c r="D213">
-        <v>-6.6401241649234111E-2</v>
+        <v>9.6169354838709697E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>41880</v>
+        <v>40480</v>
       </c>
       <c r="B214">
-        <v>3.9463723702818587E-2</v>
+        <v>3.820241139934244E-2</v>
       </c>
       <c r="C214">
-        <v>8.5749646393211698E-3</v>
+        <v>2.1461297323366321E-2</v>
       </c>
       <c r="D214">
-        <v>1.4239248283339331E-2</v>
+        <v>3.6968916681993758E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>41912</v>
+        <v>40512</v>
       </c>
       <c r="B215">
-        <v>-1.379142159994806E-2</v>
+        <v>2.0809145252043141E-5</v>
       </c>
       <c r="C215">
-        <v>-2.1298974493820681E-2</v>
+        <v>-2.101038715769599E-2</v>
       </c>
       <c r="D215">
-        <v>-3.8839794754846002E-2</v>
+        <v>-3.0684639943242331E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>41943</v>
+        <v>40543</v>
       </c>
       <c r="B216">
-        <v>2.355114065184449E-2</v>
+        <v>6.6821671172160757E-2</v>
       </c>
       <c r="C216">
-        <v>-2.597169980297243E-3</v>
+        <v>3.9426091150229103E-2</v>
       </c>
       <c r="D216">
-        <v>-3.4106917772670502E-3</v>
+        <v>5.6358645928636708E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>41971</v>
+        <v>40574</v>
       </c>
       <c r="B217">
-        <v>2.7471842827534902E-2</v>
+        <v>2.330026796885809E-2</v>
       </c>
       <c r="C217">
-        <v>1.0415731345963851E-2</v>
+        <v>9.0476742837257706E-3</v>
       </c>
       <c r="D217">
-        <v>1.354065917714453E-2</v>
+        <v>1.2038801316473171E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>42004</v>
+        <v>40602</v>
       </c>
       <c r="B218">
-        <v>-2.5602958047983289E-3</v>
+        <v>3.473735905922859E-2</v>
       </c>
       <c r="C218">
-        <v>-1.9550342130987271E-2</v>
+        <v>1.379468904471781E-2</v>
       </c>
       <c r="D218">
-        <v>-6.1954048300667863E-2</v>
+        <v>2.2593068035943631E-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>42034</v>
+        <v>40633</v>
       </c>
       <c r="B219">
-        <v>-2.962924638276343E-2</v>
+        <v>1.067351505399383E-4</v>
       </c>
       <c r="C219">
-        <v>7.432248708420186E-3</v>
+        <v>2.948180065767136E-3</v>
       </c>
       <c r="D219">
-        <v>-8.3731121371000139E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>42062</v>
+        <v>40662</v>
       </c>
       <c r="B220">
-        <v>5.620461088282469E-2</v>
+        <v>2.896168617038852E-2</v>
       </c>
       <c r="C220">
-        <v>3.4817813765181997E-2</v>
+        <v>3.5161107970604899E-2</v>
       </c>
       <c r="D220">
-        <v>6.0684974747474703E-2</v>
+        <v>5.4648924596200521E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>42094</v>
+        <v>40694</v>
       </c>
       <c r="B221">
-        <v>-1.574466030965593E-2</v>
+        <v>-1.121438052130541E-2</v>
       </c>
       <c r="C221">
-        <v>-2.83428968874978E-2</v>
+        <v>-4.6963739624290568E-3</v>
       </c>
       <c r="D221">
-        <v>-2.5221337698087879E-2</v>
+        <v>-1.3172512299634899E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>42124</v>
+        <v>40724</v>
       </c>
       <c r="B222">
-        <v>9.8339026341704994E-3</v>
+        <v>-1.688722380217322E-2</v>
       </c>
       <c r="C222">
-        <v>2.1027201145311421E-2</v>
+        <v>-7.5716010095467912E-3</v>
       </c>
       <c r="D222">
-        <v>4.2283620821248702E-2</v>
+        <v>-1.117722740431004E-2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>42153</v>
+        <v>40753</v>
       </c>
       <c r="B223">
-        <v>1.2855942969132389E-2</v>
+        <v>-2.0004527896391289E-2</v>
       </c>
       <c r="C223">
-        <v>-5.4333537814390542E-3</v>
+        <v>3.0959752321981782E-3</v>
       </c>
       <c r="D223">
-        <v>-1.017867603983613E-2</v>
+        <v>-6.3430104903635653E-3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>42185</v>
+        <v>40786</v>
       </c>
       <c r="B224">
-        <v>-2.0290560907410549E-2</v>
+        <v>-5.4975773696982921E-2</v>
       </c>
       <c r="C224">
-        <v>-1.5243633800334781E-2</v>
+        <v>-2.766754850088193E-2</v>
       </c>
       <c r="D224">
-        <v>-2.6115262262336288E-2</v>
+        <v>-5.8024388247810872E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>42216</v>
+        <v>40816</v>
       </c>
       <c r="B225">
-        <v>2.2589202799314641E-2</v>
+        <v>-6.9449285465319033E-2</v>
       </c>
       <c r="C225">
-        <v>-3.131710808876198E-3</v>
+        <v>-4.3985942636889153E-2</v>
       </c>
       <c r="D225">
-        <v>-5.4390762686113543E-2</v>
+        <v>-7.723718505647259E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>42247</v>
+        <v>40847</v>
       </c>
       <c r="B226">
-        <v>-6.0950064848814378E-2</v>
+        <v>0.10914728838069571</v>
       </c>
       <c r="C226">
-        <v>-4.2366035364868493E-2</v>
+        <v>4.5061069607494231E-2</v>
       </c>
       <c r="D226">
-        <v>-7.1015424164524443E-2</v>
+        <v>8.1159966104886516E-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>42277</v>
+        <v>40877</v>
       </c>
       <c r="B227">
-        <v>-2.5430162744113801E-2</v>
+        <v>-4.063817574707751E-3</v>
       </c>
       <c r="C227">
-        <v>-2.521323460493019E-2</v>
+        <v>-4.8791557925790263E-3</v>
       </c>
       <c r="D227">
-        <v>-3.6838464199239078E-2</v>
+        <v>-1.097274231472611E-2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>42307</v>
+        <v>40907</v>
       </c>
       <c r="B228">
-        <v>8.5059880526079157E-2</v>
+        <v>1.0439951504007229E-2</v>
       </c>
       <c r="C228">
-        <v>4.0288461538461551E-2</v>
+        <v>-5.7012542759404816E-4</v>
       </c>
       <c r="D228">
-        <v>6.5182258933381254E-2</v>
+        <v>-2.7472043673505201E-2</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>42338</v>
+        <v>40939</v>
       </c>
       <c r="B229">
-        <v>3.6549399023542151E-3</v>
+        <v>4.6374451653443227E-2</v>
       </c>
       <c r="C229">
-        <v>-6.9322488215176614E-3</v>
+        <v>2.3274386765544719E-2</v>
       </c>
       <c r="D229">
-        <v>-1.196898179366146E-2</v>
+        <v>3.6939791760977718E-2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>42369</v>
+        <v>40968</v>
       </c>
       <c r="B230">
-        <v>-1.7179252816126759E-2</v>
+        <v>4.3405476696676493E-2</v>
       </c>
       <c r="C230">
-        <v>-1.6939687267311879E-2</v>
+        <v>2.765079719032237E-2</v>
       </c>
       <c r="D230">
-        <v>-4.6152533697321203E-2</v>
+        <v>4.3045490264559387E-2</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>42398</v>
+        <v>40998</v>
       </c>
       <c r="B231">
-        <v>-4.9782447901829403E-2</v>
+        <v>3.2156518124625062E-2</v>
       </c>
       <c r="C231">
-        <v>-2.6415451619011598E-2</v>
+        <v>8.6796137571878429E-3</v>
       </c>
       <c r="D231">
-        <v>-5.1426527144262553E-2</v>
+        <v>1.289134438305717E-2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>42429</v>
+        <v>41029</v>
       </c>
       <c r="B232">
-        <v>-8.3016141093839035E-4</v>
+        <v>-6.6753272709102474E-3</v>
       </c>
       <c r="C232">
-        <v>-5.348633667217717E-3</v>
+        <v>-9.5729805313542471E-3</v>
       </c>
       <c r="D232">
-        <v>-1.0560060343201999E-2</v>
+        <v>-1.6280991735537209E-2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>42460</v>
+        <v>41060</v>
       </c>
       <c r="B233">
-        <v>6.7242431938321801E-2</v>
+        <v>-6.0055632683447047E-2</v>
       </c>
       <c r="C233">
-        <v>5.0058662495111587E-2</v>
+        <v>-4.430929626411817E-2</v>
       </c>
       <c r="D233">
-        <v>8.5286830569849537E-2</v>
+        <v>-7.5611190456187471E-2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>42489</v>
+        <v>41089</v>
       </c>
       <c r="B234">
-        <v>3.9451492818391998E-3</v>
+        <v>4.0566784416746549E-2</v>
       </c>
       <c r="C234">
-        <v>7.2625698324022547E-3</v>
+        <v>3.7272727272727353E-2</v>
       </c>
       <c r="D234">
-        <v>8.4291860567213828E-3</v>
+        <v>5.7529764609651979E-2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>42521</v>
+        <v>41121</v>
       </c>
       <c r="B235">
-        <v>1.700764204272542E-2</v>
+        <v>1.179252560618615E-2</v>
       </c>
       <c r="C235">
-        <v>-2.126086152708484E-3</v>
+        <v>7.778264680105007E-3</v>
       </c>
       <c r="D235">
-        <v>1.393121462777591E-3</v>
+        <v>4.1251289102783861E-3</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>42551</v>
+        <v>41152</v>
       </c>
       <c r="B236">
-        <v>3.4734312759459041E-3</v>
+        <v>2.5052582569119689E-2</v>
       </c>
       <c r="C236">
-        <v>4.1685965724873597E-3</v>
+        <v>1.6414827698662871E-2</v>
       </c>
       <c r="D236">
-        <v>-5.5647335014347146E-3</v>
+        <v>2.173913043478248E-2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>42580</v>
+        <v>41180</v>
       </c>
       <c r="B237">
-        <v>3.649613929307538E-2</v>
+        <v>2.535615643610489E-2</v>
       </c>
       <c r="C237">
-        <v>2.3708487084870718E-2</v>
+        <v>1.518716577540102E-2</v>
       </c>
       <c r="D237">
-        <v>-0.65865174433855034</v>
+        <v>2.6051264868487189E-2</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>42613</v>
+        <v>41213</v>
       </c>
       <c r="B238">
-        <v>1.1972678312475169E-3</v>
+        <v>-1.8198040917784649E-2</v>
       </c>
       <c r="C238">
-        <v>6.0376678381544044E-3</v>
+        <v>-5.5836493889591674E-3</v>
       </c>
       <c r="D238">
-        <v>6.9159836065575409E-3</v>
+        <v>-9.2252428769694639E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>42643</v>
+        <v>41243</v>
       </c>
       <c r="B239">
-        <v>7.7963533224201242E-5</v>
+        <v>5.6950755476743442E-3</v>
       </c>
       <c r="C239">
-        <v>7.3450376209243107E-3</v>
+        <v>6.5684924250450924E-3</v>
       </c>
       <c r="D239">
-        <v>9.1579750699566365E-3</v>
+        <v>9.3111404087014016E-3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>42674</v>
+        <v>41274</v>
       </c>
       <c r="B240">
-        <v>-1.7337085962174429E-2</v>
+        <v>8.9624667623695586E-3</v>
       </c>
       <c r="C240">
-        <v>-8.2696069713675824E-3</v>
+        <v>1.8524365856225519E-2</v>
       </c>
       <c r="D240">
-        <v>-1.4872699773128439E-2</v>
+        <v>-2.0573108008817061E-2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>42704</v>
+        <v>41305</v>
       </c>
       <c r="B241">
-        <v>3.6838498213955129E-2</v>
+        <v>5.1190367546974917E-2</v>
       </c>
       <c r="C241">
-        <v>-1.066977494844434E-2</v>
+        <v>2.542110158106858E-2</v>
       </c>
       <c r="D241">
-        <v>-4.0941658137153558E-3</v>
+        <v>3.8592981578728043E-2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>42734</v>
+        <v>41333</v>
       </c>
       <c r="B242">
-        <v>2.028324214180377E-2</v>
+        <v>1.2758775150196969E-2</v>
       </c>
       <c r="C242">
-        <v>1.1147362697117909E-2</v>
+        <v>0</v>
       </c>
       <c r="D242">
-        <v>1.9270298047276539E-2</v>
+        <v>-1.1235955056180249E-3</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>42766</v>
+        <v>41362</v>
       </c>
       <c r="B243">
-        <v>1.7894547746072801E-2</v>
+        <v>3.7975595487522502E-2</v>
       </c>
       <c r="C243">
-        <v>1.98081921663531E-2</v>
+        <v>1.09845812758238E-2</v>
       </c>
       <c r="D243">
-        <v>2.7980841946054991E-2</v>
+        <v>1.8560179977502811E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>42794</v>
+        <v>41394</v>
       </c>
       <c r="B244">
-        <v>3.9291591054377413E-2</v>
+        <v>1.921231907868726E-2</v>
       </c>
       <c r="C244">
-        <v>1.8720337493408401E-2</v>
+        <v>2.45215311004785E-2</v>
       </c>
       <c r="D244">
-        <v>3.1142717018145971E-2</v>
+        <v>3.5418474402461042E-2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>42825</v>
+        <v>41425</v>
       </c>
       <c r="B245">
-        <v>1.2582186502612109E-3</v>
+        <v>2.3578328712202001E-2</v>
       </c>
       <c r="C245">
-        <v>1.345871797083942E-2</v>
+        <v>-6.2268923915158592E-3</v>
       </c>
       <c r="D245">
-        <v>2.0214030915576719E-2</v>
+        <v>-9.9040073137283136E-3</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>42853</v>
+        <v>41453</v>
       </c>
       <c r="B246">
-        <v>9.9260365980873289E-3</v>
+        <v>-1.333013873753386E-2</v>
       </c>
       <c r="C246">
-        <v>1.2003064612241319E-2</v>
+        <v>-2.0560015664773831E-2</v>
       </c>
       <c r="D246">
-        <v>1.7482517482517501E-2</v>
+        <v>-2.5623268698061089E-2</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>42886</v>
+        <v>41486</v>
       </c>
       <c r="B247">
-        <v>1.4112844647821371E-2</v>
+        <v>5.1677053517282363E-2</v>
       </c>
       <c r="C247">
-        <v>1.5646029609690529E-2</v>
+        <v>2.7788884446221299E-2</v>
       </c>
       <c r="D247">
-        <v>2.5658648339060841E-2</v>
+        <v>3.4825870646766122E-2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>42916</v>
+        <v>41516</v>
       </c>
       <c r="B248">
-        <v>6.3743070034054661E-3</v>
+        <v>-2.9992581999743639E-2</v>
       </c>
       <c r="C248">
-        <v>2.815968196123952E-3</v>
+        <v>-1.5950204240420041E-2</v>
       </c>
       <c r="D248">
-        <v>7.1476435112798331E-3</v>
+        <v>-2.442002442002433E-2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>42947</v>
+        <v>41547</v>
       </c>
       <c r="B249">
-        <v>2.0554265459969519E-2</v>
+        <v>3.1681340849058381E-2</v>
       </c>
       <c r="C249">
-        <v>1.577469441691437E-2</v>
+        <v>3.2417473809053021E-2</v>
       </c>
       <c r="D249">
-        <v>2.3730317143490609E-2</v>
+        <v>4.7715894868585629E-2</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>42978</v>
+        <v>41578</v>
       </c>
       <c r="B250">
-        <v>2.9177671314208902E-3</v>
+        <v>4.6306794220500658E-2</v>
       </c>
       <c r="C250">
-        <v>1.0488657614440291E-2</v>
+        <v>2.9676431169825879E-2</v>
       </c>
       <c r="D250">
-        <v>1.2131715771230621E-2</v>
+        <v>4.4572196505898047E-2</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>43007</v>
+        <v>41607</v>
       </c>
       <c r="B251">
-        <v>2.0140903905006668E-2</v>
+        <v>2.9637719437288771E-2</v>
       </c>
       <c r="C251">
-        <v>4.9082716446733343E-3</v>
+        <v>6.786909631833371E-3</v>
       </c>
       <c r="D251">
-        <v>1.4126712328767169E-2</v>
+        <v>1.4509327424773181E-2</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>43039</v>
+        <v>41639</v>
       </c>
       <c r="B252">
-        <v>2.3564137006381051E-2</v>
+        <v>2.5895759771180641E-2</v>
       </c>
       <c r="C252">
-        <v>1.9537192729601971E-2</v>
+        <v>5.6330224397451722E-3</v>
       </c>
       <c r="D252">
-        <v>3.2714225411565989E-2</v>
+        <v>-2.3812878681132799E-2</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>43069</v>
+        <v>41670</v>
       </c>
       <c r="B253">
-        <v>3.0565687856276561E-2</v>
+        <v>-3.5248091589049728E-2</v>
       </c>
       <c r="C253">
-        <v>2.984371318620838E-3</v>
+        <v>-1.9651056014692411E-2</v>
       </c>
       <c r="D253">
-        <v>9.8099325567135853E-3</v>
+        <v>-3.7456697459584243E-2</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>43098</v>
+        <v>41698</v>
       </c>
       <c r="B254">
-        <v>1.208665398164799E-2</v>
+        <v>4.5515583790803893E-2</v>
       </c>
       <c r="C254">
-        <v>1.104063894761587E-2</v>
+        <v>3.0535781191457279E-2</v>
       </c>
       <c r="D254">
-        <v>1.47743371787088E-2</v>
+        <v>4.7761865486991129E-2</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>43131</v>
+        <v>41729</v>
       </c>
       <c r="B255">
-        <v>5.6359181240566381E-2</v>
+        <v>8.3108478243316686E-3</v>
       </c>
       <c r="C255">
-        <v>3.5935563816604572E-2</v>
+        <v>6.816942374113788E-3</v>
       </c>
       <c r="D255">
-        <v>6.3621858795372965E-2</v>
+        <v>1.1664519822527589E-2</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>43159</v>
+        <v>41759</v>
       </c>
       <c r="B256">
-        <v>-3.6360390013662869E-2</v>
+        <v>6.9515942491158436E-3</v>
       </c>
       <c r="C256">
-        <v>-2.9156698564593131E-2</v>
+        <v>1.4263789834792821E-2</v>
       </c>
       <c r="D256">
-        <v>-4.55653478342396E-2</v>
+        <v>1.7825564122515351E-2</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>43189</v>
+        <v>41789</v>
       </c>
       <c r="B257">
-        <v>-2.741547203016503E-2</v>
+        <v>2.3206424542578041E-2</v>
       </c>
       <c r="C257">
-        <v>-6.6225165562915356E-3</v>
+        <v>1.415220293724961E-2</v>
       </c>
       <c r="D257">
-        <v>-1.6306483300589369E-2</v>
+        <v>1.5428452289943939E-2</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>43220</v>
+        <v>41820</v>
       </c>
       <c r="B258">
-        <v>5.1681249892026049E-3</v>
+        <v>2.0633233335854321E-2</v>
       </c>
       <c r="C258">
-        <v>-6.2790697674418583E-3</v>
+        <v>8.1621906266455824E-3</v>
       </c>
       <c r="D258">
-        <v>-8.7876972238865037E-3</v>
+        <v>1.423584970227898E-2</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>43251</v>
+        <v>41851</v>
       </c>
       <c r="B259">
-        <v>2.4309246578164471E-2</v>
+        <v>-1.3437726629347059E-2</v>
       </c>
       <c r="C259">
-        <v>-3.6664326390514201E-3</v>
+        <v>-1.5234613040828741E-2</v>
       </c>
       <c r="D259">
-        <v>-4.2313117066290484E-3</v>
+        <v>-6.6401241649234111E-2</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>43280</v>
+        <v>41880</v>
       </c>
       <c r="B260">
-        <v>5.7550616523449616E-3</v>
+        <v>3.9463723702818587E-2</v>
       </c>
       <c r="C260">
-        <v>-1.5267773253993091E-2</v>
+        <v>8.5749646393211698E-3</v>
       </c>
       <c r="D260">
-        <v>-2.5900445163901331E-2</v>
+        <v>1.4239248283339331E-2</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>43312</v>
+        <v>41912</v>
       </c>
       <c r="B261">
-        <v>3.7046440945936343E-2</v>
+        <v>-1.379142159994806E-2</v>
       </c>
       <c r="C261">
-        <v>2.0116084916911969E-2</v>
+        <v>-2.1298974493820681E-2</v>
       </c>
       <c r="D261">
-        <v>3.5521395928541873E-2</v>
+        <v>-3.8839794754846002E-2</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>43343</v>
+        <v>41943</v>
       </c>
       <c r="B262">
-        <v>3.191981920535425E-2</v>
+        <v>2.355114065184449E-2</v>
       </c>
       <c r="C262">
-        <v>-6.3912704598597658E-3</v>
+        <v>-2.597169980297243E-3</v>
       </c>
       <c r="D262">
-        <v>-7.6228686058175121E-3</v>
+        <v>-3.4106917772670502E-3</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>43371</v>
+        <v>41971</v>
       </c>
       <c r="B263">
-        <v>5.9484187059766214E-3</v>
+        <v>2.7471842827534902E-2</v>
       </c>
       <c r="C263">
-        <v>4.0006275494195442E-3</v>
+        <v>1.0415731345963851E-2</v>
       </c>
       <c r="D263">
-        <v>7.2771376591873596E-3</v>
+        <v>1.354065917714453E-2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>43404</v>
+        <v>42004</v>
       </c>
       <c r="B264">
-        <v>-6.9104328403931436E-2</v>
+        <v>-2.5602958047983289E-3</v>
       </c>
       <c r="C264">
-        <v>-4.7347449019454528E-2</v>
+        <v>-1.9550342130987271E-2</v>
       </c>
       <c r="D264">
-        <v>-7.9269516355608971E-2</v>
+        <v>-6.1954048300667863E-2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>43434</v>
+        <v>42034</v>
       </c>
       <c r="B265">
-        <v>1.8549208642051559E-2</v>
+        <v>-2.962924638276343E-2</v>
       </c>
       <c r="C265">
-        <v>8.9395554826539048E-3</v>
+        <v>7.432248708420186E-3</v>
       </c>
       <c r="D265">
-        <v>1.1551874455100201E-2</v>
+        <v>-8.3731121371000139E-3</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>43465</v>
+        <v>42062</v>
       </c>
       <c r="B266">
-        <v>-8.7936057576482263E-2</v>
+        <v>5.620461088282469E-2</v>
       </c>
       <c r="C266">
-        <v>-2.6581043732726409E-2</v>
+        <v>3.4817813765181997E-2</v>
       </c>
       <c r="D266">
-        <v>-6.1193708252531683E-2</v>
+        <v>6.0684974747474703E-2</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>43496</v>
+        <v>42094</v>
       </c>
       <c r="B267">
-        <v>8.0065604162687709E-2</v>
+        <v>-1.574466030965593E-2</v>
       </c>
       <c r="C267">
-        <v>5.5365344467640958E-2</v>
+        <v>-2.83428968874978E-2</v>
       </c>
       <c r="D267">
-        <v>8.6068395685104493E-2</v>
+        <v>-2.5221337698087879E-2</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>43524</v>
+        <v>42124</v>
       </c>
       <c r="B268">
-        <v>3.2415832911142577E-2</v>
+        <v>9.8339026341704994E-3</v>
       </c>
       <c r="C268">
-        <v>7.3587592973571869E-3</v>
+        <v>2.1027201145311421E-2</v>
       </c>
       <c r="D268">
-        <v>1.7328825021132751E-2</v>
+        <v>4.2283620821248702E-2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>43553</v>
+        <v>42153</v>
       </c>
       <c r="B269">
-        <v>1.8078986590464249E-2</v>
+        <v>1.2855942969132389E-2</v>
       </c>
       <c r="C269">
-        <v>9.8971015631135195E-3</v>
+        <v>-5.4333537814390542E-3</v>
       </c>
       <c r="D269">
-        <v>7.6859160781055369E-3</v>
+        <v>-1.017867603983613E-2</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>43585</v>
+        <v>42185</v>
       </c>
       <c r="B270">
-        <v>4.0852562813418418E-2</v>
+        <v>-2.0290560907410549E-2</v>
       </c>
       <c r="C270">
-        <v>1.602240024889157E-2</v>
+        <v>-1.5243633800334781E-2</v>
       </c>
       <c r="D270">
-        <v>2.659245516388364E-2</v>
+        <v>-2.6115262262336288E-2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>43616</v>
+        <v>42216</v>
       </c>
       <c r="B271">
-        <v>-6.3771248547522918E-2</v>
+        <v>2.2589202799314641E-2</v>
       </c>
       <c r="C271">
-        <v>-2.939600398070874E-2</v>
+        <v>-3.131710808876198E-3</v>
       </c>
       <c r="D271">
-        <v>-6.0441767068273089E-2</v>
+        <v>-5.4390762686113543E-2</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>43644</v>
+        <v>42247</v>
       </c>
       <c r="B272">
-        <v>6.9592712726875838E-2</v>
+        <v>-6.0950064848814378E-2</v>
       </c>
       <c r="C272">
-        <v>4.1091568735704742E-2</v>
+        <v>-4.2366035364868493E-2</v>
       </c>
       <c r="D272">
-        <v>6.432998503953824E-2</v>
+        <v>-7.1015424164524443E-2</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>43677</v>
+        <v>42277</v>
       </c>
       <c r="B273">
-        <v>1.5119332247300219E-2</v>
+        <v>-2.5430162744113801E-2</v>
       </c>
       <c r="C273">
-        <v>-3.8636363636362909E-3</v>
+        <v>-2.521323460493019E-2</v>
       </c>
       <c r="D273">
-        <v>-6.8273092369477428E-3</v>
+        <v>-3.6838464199239078E-2</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>43707</v>
+        <v>42307</v>
       </c>
       <c r="B274">
-        <v>-1.6743366818159359E-2</v>
+        <v>8.5059880526079157E-2</v>
       </c>
       <c r="C274">
-        <v>-1.483002509696563E-2</v>
+        <v>4.0288461538461551E-2</v>
       </c>
       <c r="D274">
-        <v>-3.4169025475131343E-2</v>
+        <v>6.5182258933381254E-2</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>43738</v>
+        <v>42338</v>
       </c>
       <c r="B275">
-        <v>1.9478937588080392E-2</v>
+        <v>3.6549399023542151E-3</v>
       </c>
       <c r="C275">
-        <v>2.0997375328083882E-2</v>
+        <v>-6.9322488215176614E-3</v>
       </c>
       <c r="D275">
-        <v>3.7052543437303687E-2</v>
+        <v>-1.196898179366146E-2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>43769</v>
+        <v>42369</v>
       </c>
       <c r="B276">
-        <v>2.2104728327310589E-2</v>
+        <v>-1.7179252816126759E-2</v>
       </c>
       <c r="C276">
-        <v>2.215333434144862E-2</v>
+        <v>-1.6939687267311879E-2</v>
       </c>
       <c r="D276">
-        <v>3.8756560355268421E-2</v>
+        <v>-4.6152533697321203E-2</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>43798</v>
+        <v>42398</v>
       </c>
       <c r="B277">
-        <v>3.6198192404332197E-2</v>
+        <v>-4.9782447901829403E-2</v>
       </c>
       <c r="C277">
-        <v>9.3202159923071459E-3</v>
+        <v>-2.6415451619011598E-2</v>
       </c>
       <c r="D277">
-        <v>1.710066070734562E-2</v>
+        <v>-5.1426527144262553E-2</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>43830</v>
+        <v>42429</v>
       </c>
       <c r="B278">
-        <v>2.9033414367261479E-2</v>
+        <v>-8.3016141093839035E-4</v>
       </c>
       <c r="C278">
-        <v>3.2832539391718818E-2</v>
+        <v>-5.348633667217717E-3</v>
       </c>
       <c r="D278">
-        <v>4.7382499044707593E-2</v>
+        <v>-1.0560060343201999E-2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>43861</v>
+        <v>42460</v>
       </c>
       <c r="B279">
-        <v>-4.0390268396051088E-4</v>
+        <v>6.7242431938321801E-2</v>
       </c>
       <c r="C279">
-        <v>-1.9371319094586111E-2</v>
+        <v>5.0058662495111587E-2</v>
       </c>
       <c r="D279">
-        <v>-3.2105071141918962E-2</v>
+        <v>8.5286830569849537E-2</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>43889</v>
+        <v>42489</v>
       </c>
       <c r="B280">
-        <v>-7.9165659153299539E-2</v>
+        <v>3.9451492818391998E-3</v>
       </c>
       <c r="C280">
-        <v>-4.0810419681620691E-2</v>
+        <v>7.2625698324022547E-3</v>
       </c>
       <c r="D280">
-        <v>-7.1428571428571397E-2</v>
+        <v>8.4291860567213828E-3</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>43921</v>
+        <v>42521</v>
       </c>
       <c r="B281">
-        <v>-0.1246425189591216</v>
+        <v>1.700764204272542E-2</v>
       </c>
       <c r="C281">
-        <v>-0.11496680748340379</v>
+        <v>-2.126086152708484E-3</v>
       </c>
       <c r="D281">
-        <v>-0.15668763953724391</v>
+        <v>1.393121462777591E-3</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>43951</v>
+        <v>42551</v>
       </c>
       <c r="B282">
-        <v>0.12698337514970071</v>
+        <v>3.4734312759459041E-3</v>
       </c>
       <c r="C282">
-        <v>6.708148653256063E-2</v>
+        <v>4.1685965724873597E-3</v>
       </c>
       <c r="D282">
-        <v>9.5306859205776195E-2</v>
+        <v>-5.5647335014347146E-3</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>43980</v>
+        <v>42580</v>
       </c>
       <c r="B283">
-        <v>4.7645222312918012E-2</v>
+        <v>3.649613929307538E-2</v>
       </c>
       <c r="C283">
-        <v>2.2925153766275349E-2</v>
+        <v>2.3708487084870718E-2</v>
       </c>
       <c r="D283">
-        <v>3.8672819160624261E-2</v>
+        <v>-0.65865174433855034</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>44012</v>
+        <v>42613</v>
       </c>
       <c r="B284">
-        <v>1.7760923294270151E-2</v>
+        <v>1.1972678312475169E-3</v>
       </c>
       <c r="C284">
-        <v>2.2020927690145301E-2</v>
+        <v>6.0376678381544044E-3</v>
       </c>
       <c r="D284">
-        <v>2.9617093293843769E-2</v>
+        <v>6.9159836065575409E-3</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>44043</v>
+        <v>42643</v>
       </c>
       <c r="B285">
-        <v>5.8892316205936927E-2</v>
+        <v>7.7963533224201242E-5</v>
       </c>
       <c r="C285">
-        <v>3.4688264058679641E-2</v>
+        <v>7.3450376209243107E-3</v>
       </c>
       <c r="D285">
-        <v>4.4996918019313707E-2</v>
+        <v>9.1579750699566365E-3</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>44074</v>
+        <v>42674</v>
       </c>
       <c r="B286">
-        <v>6.9796671802728527E-2</v>
+        <v>-1.7337085962174429E-2</v>
       </c>
       <c r="C286">
-        <v>1.720573032048445E-2</v>
+        <v>-8.2696069713675824E-3</v>
       </c>
       <c r="D286">
-        <v>3.4604797483287493E-2</v>
+        <v>-1.4872699773128439E-2</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
-        <v>44104</v>
+        <v>42704</v>
       </c>
       <c r="B287">
-        <v>-3.73984427663413E-2</v>
+        <v>3.6838498213955129E-2</v>
       </c>
       <c r="C287">
-        <v>-1.415607985480938E-2</v>
+        <v>-1.066977494844434E-2</v>
       </c>
       <c r="D287">
-        <v>-2.2995058912960831E-2</v>
+        <v>-4.0941658137153558E-3</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>44134</v>
+        <v>42734</v>
       </c>
       <c r="B288">
-        <v>-2.493351582224201E-2</v>
+        <v>2.028324214180377E-2</v>
       </c>
       <c r="C288">
-        <v>-9.3519882179676772E-3</v>
+        <v>1.1147362697117909E-2</v>
       </c>
       <c r="D288">
-        <v>-2.0618556701030851E-2</v>
+        <v>1.9270298047276539E-2</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>44165</v>
+        <v>42766</v>
       </c>
       <c r="B289">
-        <v>0.1087769595384989</v>
+        <v>1.7894547746072801E-2</v>
       </c>
       <c r="C289">
-        <v>7.1433880918754022E-2</v>
+        <v>1.98081921663531E-2</v>
       </c>
       <c r="D289">
-        <v>0.12472691161866931</v>
+        <v>2.7980841946054991E-2</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>44196</v>
+        <v>42794</v>
       </c>
       <c r="B290">
-        <v>3.7065986506499948E-2</v>
+        <v>3.9291591054377413E-2</v>
       </c>
       <c r="C290">
-        <v>3.7810462050783977E-2</v>
+        <v>1.8720337493408401E-2</v>
       </c>
       <c r="D290">
-        <v>6.0038848666784439E-2</v>
+        <v>3.1142717018145971E-2</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
-        <v>44225</v>
+        <v>42825</v>
       </c>
       <c r="B291">
-        <v>-1.019050459275983E-2</v>
+        <v>1.2582186502612109E-3</v>
       </c>
       <c r="C291">
-        <v>5.548499231232018E-3</v>
+        <v>1.345871797083942E-2</v>
       </c>
       <c r="D291">
-        <v>4.6643344994170546E-3</v>
+        <v>2.0214030915576719E-2</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
-        <v>44253</v>
+        <v>42853</v>
       </c>
       <c r="B292">
-        <v>2.7805617741972322E-2</v>
+        <v>9.9260365980873289E-3</v>
       </c>
       <c r="C292">
-        <v>1.6886052386650752E-2</v>
+        <v>1.2003064612241319E-2</v>
       </c>
       <c r="D292">
-        <v>4.1784115403747268E-2</v>
+        <v>1.7482517482517501E-2</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
-        <v>44286</v>
+        <v>42886</v>
       </c>
       <c r="B293">
-        <v>4.5405052721517743E-2</v>
+        <v>1.4112844647821371E-2</v>
       </c>
       <c r="C293">
-        <v>2.3470188284518741E-2</v>
+        <v>1.5646029609690529E-2</v>
       </c>
       <c r="D293">
-        <v>4.217730383574736E-2</v>
+        <v>2.5658648339060841E-2</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
-        <v>44316</v>
+        <v>42916</v>
       </c>
       <c r="B294">
-        <v>5.2910339891963698E-2</v>
+        <v>6.3743070034054661E-3</v>
       </c>
       <c r="C294">
-        <v>1.8779942510380069E-2</v>
+        <v>2.815968196123952E-3</v>
       </c>
       <c r="D294">
-        <v>2.519853390348192E-2</v>
+        <v>7.1476435112798331E-3</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
-        <v>44347</v>
+        <v>42947</v>
       </c>
       <c r="B295">
-        <v>6.5661245892645326E-3</v>
+        <v>2.0554265459969519E-2</v>
       </c>
       <c r="C295">
-        <v>2.439024390243905E-2</v>
+        <v>1.577469441691437E-2</v>
       </c>
       <c r="D295">
-        <v>3.3814985848354073E-2</v>
+        <v>2.3730317143490609E-2</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
-        <v>44377</v>
+        <v>42978</v>
       </c>
       <c r="B296">
-        <v>2.2472715158282641E-2</v>
+        <v>2.9177671314208902E-3</v>
       </c>
       <c r="C296">
-        <v>-1.1751744399559279E-2</v>
+        <v>1.0488657614440291E-2</v>
       </c>
       <c r="D296">
-        <v>-1.3832853025936729E-2</v>
+        <v>1.2131715771230621E-2</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>44407</v>
+        <v>43007</v>
       </c>
       <c r="B297">
-        <v>2.441246928077279E-2</v>
+        <v>2.0140903905006668E-2</v>
       </c>
       <c r="C297">
-        <v>-1.1334076551467899E-2</v>
+        <v>4.9082716446733343E-3</v>
       </c>
       <c r="D297">
-        <v>-9.6434833430741884E-3</v>
+        <v>1.4126712328767169E-2</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>44439</v>
+        <v>43039</v>
       </c>
       <c r="B298">
-        <v>2.9759798797340808E-2</v>
+        <v>2.3564137006381051E-2</v>
       </c>
       <c r="C298">
-        <v>9.6473094029942974E-3</v>
+        <v>1.9537192729601971E-2</v>
       </c>
       <c r="D298">
-        <v>1.490115078194165E-2</v>
+        <v>3.2714225411565989E-2</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>44469</v>
+        <v>43069</v>
       </c>
       <c r="B299">
-        <v>-4.6575322521287821E-2</v>
+        <v>3.0565687856276561E-2</v>
       </c>
       <c r="C299">
-        <v>-2.3019172302537579E-2</v>
+        <v>2.984371318620838E-3</v>
       </c>
       <c r="D299">
-        <v>-3.4452682075883152E-2</v>
+        <v>9.8099325567135853E-3</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
-        <v>44498</v>
+        <v>43098</v>
       </c>
       <c r="B300">
-        <v>7.016367460979267E-2</v>
+        <v>1.208665398164799E-2</v>
       </c>
       <c r="C300">
-        <v>5.6522291375586953E-3</v>
+        <v>1.104063894761587E-2</v>
       </c>
       <c r="D300">
-        <v>2.619692863595291E-2</v>
+        <v>1.47743371787088E-2</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
-        <v>44530</v>
+        <v>43131</v>
       </c>
       <c r="B301">
-        <v>-8.0348736321348424E-3</v>
+        <v>5.6359181240566381E-2</v>
       </c>
       <c r="C301">
-        <v>-2.4818440164193319E-2</v>
+        <v>3.5935563816604572E-2</v>
       </c>
       <c r="D301">
-        <v>-3.9759389671361389E-2</v>
+        <v>6.3621858795372965E-2</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
-        <v>44561</v>
+        <v>43159</v>
       </c>
       <c r="B302">
-        <v>4.6294910828561298E-2</v>
+        <v>-3.6360390013662869E-2</v>
       </c>
       <c r="C302">
-        <v>3.6782800155420237E-2</v>
+        <v>-2.9156698564593131E-2</v>
       </c>
       <c r="D302">
-        <v>5.4698242933536978E-2</v>
+        <v>-4.55653478342396E-2</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
-        <v>44592</v>
+        <v>43189</v>
       </c>
       <c r="B303">
-        <v>-5.2741309234019429E-2</v>
+        <v>-2.741547203016503E-2</v>
       </c>
       <c r="C303">
-        <v>-8.9943785134291021E-3</v>
+        <v>-6.6225165562915356E-3</v>
       </c>
       <c r="D303">
-        <v>-2.129508909169919E-2</v>
+        <v>-1.6306483300589369E-2</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
-        <v>44620</v>
+        <v>43220</v>
       </c>
       <c r="B304">
-        <v>-2.9516976550946209E-2</v>
+        <v>5.1681249892026049E-3</v>
       </c>
       <c r="C304">
-        <v>-3.69343249716374E-2</v>
+        <v>-6.2790697674418583E-3</v>
       </c>
       <c r="D304">
-        <v>-4.6921255180580212E-2</v>
+        <v>-8.7876972238865037E-3</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
-        <v>44651</v>
+        <v>43251</v>
       </c>
       <c r="B305">
-        <v>3.7555589146135882E-2</v>
+        <v>2.4309246578164471E-2</v>
       </c>
       <c r="C305">
-        <v>-2.1596858638743499E-2</v>
+        <v>-3.6664326390514201E-3</v>
       </c>
       <c r="D305">
-        <v>-1.863643422891759E-2</v>
+        <v>-4.2313117066290484E-3</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
-        <v>44680</v>
+        <v>43280</v>
       </c>
       <c r="B306">
-        <v>-8.776903216822507E-2</v>
+        <v>5.7550616523449616E-3</v>
       </c>
       <c r="C306">
-        <v>-4.0468227424749197E-2</v>
+        <v>-1.5267773253993091E-2</v>
       </c>
       <c r="D306">
-        <v>-5.8711821490742173E-2</v>
+        <v>-2.5900445163901331E-2</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
-        <v>44712</v>
+        <v>43312</v>
       </c>
       <c r="B307">
-        <v>2.257290165480486E-3</v>
+        <v>3.7046440945936343E-2</v>
       </c>
       <c r="C307">
-        <v>1.5545486232136699E-2</v>
+        <v>2.0116084916911969E-2</v>
       </c>
       <c r="D307">
-        <v>2.08473436449228E-2</v>
+        <v>3.5521395928541873E-2</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
-        <v>44742</v>
+        <v>43343</v>
       </c>
       <c r="B308">
-        <v>-8.2469318968010907E-2</v>
+        <v>3.191981920535425E-2</v>
       </c>
       <c r="C308">
-        <v>-6.4113124656781983E-2</v>
+        <v>-6.3912704598597658E-3</v>
       </c>
       <c r="D308">
-        <v>-8.794466403162049E-2</v>
+        <v>-7.6228686058175121E-3</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
-        <v>44771</v>
+        <v>43371</v>
       </c>
       <c r="B309">
-        <v>9.2087456934515366E-2</v>
+        <v>5.9484187059766214E-3</v>
       </c>
       <c r="C309">
-        <v>3.4399295877952207E-2</v>
+        <v>4.0006275494195442E-3</v>
       </c>
       <c r="D309">
-        <v>4.2795232936077898E-2</v>
+        <v>7.2771376591873596E-3</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
-        <v>44804</v>
+        <v>43404</v>
       </c>
       <c r="B310">
-        <v>-4.0801868702520012E-2</v>
+        <v>-6.9104328403931436E-2</v>
       </c>
       <c r="C310">
-        <v>-2.581011132383193E-2</v>
+        <v>-4.7347449019454528E-2</v>
       </c>
       <c r="D310">
-        <v>-3.6536796536796527E-2</v>
+        <v>-7.9269516355608971E-2</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
-        <v>44834</v>
+        <v>43434</v>
       </c>
       <c r="B311">
-        <v>-9.2416410896602907E-2</v>
+        <v>1.8549208642051559E-2</v>
       </c>
       <c r="C311">
-        <v>-6.8636727563869182E-2</v>
+        <v>8.9395554826539048E-3</v>
       </c>
       <c r="D311">
-        <v>-9.3278217109992734E-2</v>
+        <v>1.1551874455100201E-2</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
-        <v>44865</v>
+        <v>43465</v>
       </c>
       <c r="B312">
-        <v>8.1275484920479091E-2</v>
+        <v>-8.7936057576482263E-2</v>
       </c>
       <c r="C312">
-        <v>3.3213504220068968E-2</v>
+        <v>-2.6581043732726409E-2</v>
       </c>
       <c r="D312">
-        <v>6.0455896927651187E-2</v>
+        <v>-6.1193708252531683E-2</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
-        <v>44895</v>
+        <v>43496</v>
       </c>
       <c r="B313">
-        <v>5.5591530157602653E-2</v>
+        <v>8.0065604162687709E-2</v>
       </c>
       <c r="C313">
-        <v>7.805763557975931E-2</v>
+        <v>5.5365344467640958E-2</v>
       </c>
       <c r="D313">
-        <v>0.1071028037383177</v>
+        <v>8.6068395685104493E-2</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
-        <v>44925</v>
+        <v>43524</v>
       </c>
       <c r="B314">
-        <v>-5.7575773855690571E-2</v>
+        <v>3.2415832911142577E-2</v>
       </c>
       <c r="C314">
-        <v>-1.915386234476946E-2</v>
+        <v>7.3587592973571869E-3</v>
       </c>
       <c r="D314">
-        <v>-3.2753672125611977E-2</v>
+        <v>1.7328825021132751E-2</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
-        <v>44957</v>
+        <v>43553</v>
       </c>
       <c r="B315">
-        <v>6.288730285695765E-2</v>
+        <v>1.8078986590464249E-2</v>
       </c>
       <c r="C315">
-        <v>5.8011444921316047E-2</v>
+        <v>9.8971015631135195E-3</v>
       </c>
       <c r="D315">
-        <v>8.0642345959155204E-2</v>
+        <v>7.6859160781055369E-3</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
-        <v>44985</v>
+        <v>43585</v>
       </c>
       <c r="B316">
-        <v>-2.5142632287097341E-2</v>
+        <v>4.0852562813418418E-2</v>
       </c>
       <c r="C316">
-        <v>-2.3527820972212728E-2</v>
+        <v>1.602240024889157E-2</v>
       </c>
       <c r="D316">
-        <v>-2.923598772411562E-2</v>
+        <v>2.659245516388364E-2</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
-        <v>45016</v>
+        <v>43616</v>
       </c>
       <c r="B317">
-        <v>3.7124891614161097E-2</v>
+        <v>-6.3771248547522918E-2</v>
       </c>
       <c r="C317">
-        <v>1.2739735512012681E-2</v>
+        <v>-2.939600398070874E-2</v>
       </c>
       <c r="D317">
-        <v>1.547420965058244E-2</v>
+        <v>-6.0441767068273089E-2</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
-        <v>45044</v>
+        <v>43644</v>
       </c>
       <c r="B318">
-        <v>1.5974961820125921E-2</v>
+        <v>6.9592712726875838E-2</v>
       </c>
       <c r="C318">
-        <v>8.8876734805496405E-3</v>
+        <v>4.1091568735704742E-2</v>
       </c>
       <c r="D318">
-        <v>1.294445354743567E-2</v>
+        <v>6.432998503953824E-2</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
-        <v>45077</v>
+        <v>43677</v>
       </c>
       <c r="B319">
-        <v>4.6161692884867378E-3</v>
+        <v>1.5119332247300219E-2</v>
       </c>
       <c r="C319">
-        <v>-2.093921528766007E-2</v>
+        <v>-3.8636363636362909E-3</v>
       </c>
       <c r="D319">
-        <v>-2.264639275315428E-2</v>
+        <v>-6.8273092369477428E-3</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
-        <v>45107</v>
+        <v>43707</v>
       </c>
       <c r="B320">
-        <v>6.4814267730854525E-2</v>
+        <v>-1.6743366818159359E-2</v>
       </c>
       <c r="C320">
-        <v>3.979789590254712E-2</v>
+        <v>-1.483002509696563E-2</v>
       </c>
       <c r="D320">
-        <v>6.0741476332340387E-2</v>
+        <v>-3.4169025475131343E-2</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
-        <v>45138</v>
+        <v>43738</v>
       </c>
       <c r="B321">
-        <v>3.2733272783952438E-2</v>
+        <v>1.9478937588080392E-2</v>
       </c>
       <c r="C321">
-        <v>3.1218797843306941E-2</v>
+        <v>2.0997375328083882E-2</v>
       </c>
       <c r="D321">
-        <v>4.3688562958339887E-2</v>
+        <v>3.7052543437303687E-2</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
-        <v>45169</v>
+        <v>43769</v>
       </c>
       <c r="B322">
-        <v>-1.625203881186366E-2</v>
+        <v>2.2104728327310589E-2</v>
       </c>
       <c r="C322">
-        <v>-2.1043119029176331E-2</v>
+        <v>2.215333434144862E-2</v>
       </c>
       <c r="D322">
-        <v>-3.1095828972940609E-2</v>
+        <v>3.8756560355268421E-2</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
-        <v>45198</v>
+        <v>43798</v>
       </c>
       <c r="B323">
-        <v>-4.7393328977418658E-2</v>
+        <v>3.6198192404332197E-2</v>
       </c>
       <c r="C323">
-        <v>-1.6352367137016929E-2</v>
+        <v>9.3202159923071459E-3</v>
       </c>
       <c r="D323">
-        <v>-2.3144576454250831E-2</v>
+        <v>1.710066070734562E-2</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <v>45230</v>
+        <v>43830</v>
       </c>
       <c r="B324">
-        <v>-2.170865112999976E-2</v>
+        <v>2.9033414367261479E-2</v>
       </c>
       <c r="C324">
-        <v>-2.8623139831076672E-2</v>
+        <v>3.2832539391718818E-2</v>
       </c>
       <c r="D324">
-        <v>-3.3486021165692659E-2</v>
+        <v>4.7382499044707593E-2</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <v>45260</v>
+        <v>43861</v>
       </c>
       <c r="B325">
-        <v>9.1343871029709867E-2</v>
+        <v>-4.0390268396051088E-4</v>
       </c>
       <c r="C325">
-        <v>6.3694707059554156E-2</v>
+        <v>-1.9371319094586111E-2</v>
       </c>
       <c r="D325">
-        <v>8.1385847360679886E-2</v>
+        <v>-3.2105071141918962E-2</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <v>45289</v>
+        <v>43889</v>
       </c>
       <c r="B326">
-        <v>4.5662521065815698E-2</v>
+        <v>-7.9165659153299539E-2</v>
       </c>
       <c r="C326">
-        <v>5.3328143246399451E-2</v>
+        <v>-4.0810419681620691E-2</v>
       </c>
       <c r="D326">
-        <v>5.8334592715732159E-2</v>
+        <v>-7.1428571428571397E-2</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <v>45322</v>
+        <v>43921</v>
       </c>
       <c r="B327">
-        <v>1.59265124064405E-2</v>
+        <v>-0.1246425189591216</v>
       </c>
       <c r="C327">
-        <v>-4.3729982754373564E-3</v>
+        <v>-0.11496680748340379</v>
       </c>
       <c r="D327">
-        <v>-4.4266742824503602E-3</v>
+        <v>-0.15668763953724391</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <v>45351</v>
+        <v>43951</v>
       </c>
       <c r="B328">
-        <v>5.2186881635623912E-2</v>
+        <v>0.12698337514970071</v>
       </c>
       <c r="C328">
-        <v>1.385709866996576E-2</v>
+        <v>6.708148653256063E-2</v>
       </c>
       <c r="D328">
-        <v>3.0407343660355801E-2</v>
+        <v>9.5306859205776195E-2</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <v>45380</v>
+        <v>43980</v>
       </c>
       <c r="B329">
-        <v>3.2723827127335792E-2</v>
+        <v>4.7645222312918012E-2</v>
       </c>
       <c r="C329">
-        <v>2.7640490572945261E-2</v>
+        <v>2.2925153766275349E-2</v>
       </c>
       <c r="D329">
-        <v>3.7026726057906467E-2</v>
+        <v>3.8672819160624261E-2</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <v>45412</v>
+        <v>44012</v>
       </c>
       <c r="B330">
-        <v>-4.031963133974048E-2</v>
+        <v>1.7760923294270151E-2</v>
       </c>
       <c r="C330">
-        <v>-2.6600166251039E-2</v>
+        <v>2.2020927690145301E-2</v>
       </c>
       <c r="D330">
-        <v>-2.6308724832214692E-2</v>
+        <v>2.9617093293843769E-2</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <v>45443</v>
+        <v>44043</v>
       </c>
       <c r="B331">
-        <v>5.0579686433616322E-2</v>
+        <v>5.8892316205936927E-2</v>
       </c>
       <c r="C331">
-        <v>3.4768817860192591E-2</v>
+        <v>3.4688264058679641E-2</v>
       </c>
       <c r="D331">
-        <v>4.3148607664736723E-2</v>
+        <v>4.4996918019313707E-2</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <v>45471</v>
+        <v>44074</v>
       </c>
       <c r="B332">
-        <v>3.5284655401966569E-2</v>
+        <v>6.9796671802728527E-2</v>
       </c>
       <c r="C332">
-        <v>-7.1917000707379941E-3</v>
+        <v>1.720573032048445E-2</v>
       </c>
       <c r="D332">
-        <v>-1.3083124091449631E-2</v>
+        <v>3.4604797483287493E-2</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <v>45504</v>
+        <v>44104</v>
       </c>
       <c r="B333">
-        <v>1.210909732446197E-2</v>
+        <v>-3.73984427663413E-2</v>
       </c>
       <c r="C333">
-        <v>3.0400190001187429E-2</v>
+        <v>-1.415607985480938E-2</v>
       </c>
       <c r="D333">
-        <v>3.4681306909480243E-2</v>
+        <v>-2.2995058912960831E-2</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <v>45534</v>
+        <v>44134</v>
       </c>
       <c r="B334">
-        <v>2.3365649680494371E-2</v>
+        <v>-2.493351582224201E-2</v>
       </c>
       <c r="C334">
-        <v>1.4694018670047271E-2</v>
+        <v>-9.3519882179676772E-3</v>
       </c>
       <c r="D334">
-        <v>1.9541866183512498E-2</v>
+        <v>-2.0618556701030851E-2</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <v>45565</v>
+        <v>44165</v>
       </c>
       <c r="B335">
-        <v>2.100911067159017E-2</v>
+        <v>0.1087769595384989</v>
       </c>
       <c r="C335">
-        <v>1.243682207961827E-2</v>
+        <v>7.1433880918754022E-2</v>
       </c>
       <c r="D335">
-        <v>1.535922823051528E-2</v>
+        <v>0.12472691161866931</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B336">
+        <v>3.7065986506499948E-2</v>
+      </c>
+      <c r="C336">
+        <v>3.7810462050783977E-2</v>
+      </c>
+      <c r="D336">
+        <v>6.0038848666784439E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B337">
+        <v>-1.019050459275983E-2</v>
+      </c>
+      <c r="C337">
+        <v>5.548499231232018E-3</v>
+      </c>
+      <c r="D337">
+        <v>4.6643344994170546E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B338">
+        <v>2.7805617741972322E-2</v>
+      </c>
+      <c r="C338">
+        <v>1.6886052386650752E-2</v>
+      </c>
+      <c r="D338">
+        <v>4.1784115403747268E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B339">
+        <v>4.5405052721517743E-2</v>
+      </c>
+      <c r="C339">
+        <v>2.3470188284518741E-2</v>
+      </c>
+      <c r="D339">
+        <v>4.217730383574736E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B340">
+        <v>5.2910339891963698E-2</v>
+      </c>
+      <c r="C340">
+        <v>1.8779942510380069E-2</v>
+      </c>
+      <c r="D340">
+        <v>2.519853390348192E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B341">
+        <v>6.5661245892645326E-3</v>
+      </c>
+      <c r="C341">
+        <v>2.439024390243905E-2</v>
+      </c>
+      <c r="D341">
+        <v>3.3814985848354073E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B342">
+        <v>2.2472715158282641E-2</v>
+      </c>
+      <c r="C342">
+        <v>-1.1751744399559279E-2</v>
+      </c>
+      <c r="D342">
+        <v>-1.3832853025936729E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B343">
+        <v>2.441246928077279E-2</v>
+      </c>
+      <c r="C343">
+        <v>-1.1334076551467899E-2</v>
+      </c>
+      <c r="D343">
+        <v>-9.6434833430741884E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B344">
+        <v>2.9759798797340808E-2</v>
+      </c>
+      <c r="C344">
+        <v>9.6473094029942974E-3</v>
+      </c>
+      <c r="D344">
+        <v>1.490115078194165E-2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B345">
+        <v>-4.6575322521287821E-2</v>
+      </c>
+      <c r="C345">
+        <v>-2.3019172302537579E-2</v>
+      </c>
+      <c r="D345">
+        <v>-3.4452682075883152E-2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B346">
+        <v>7.016367460979267E-2</v>
+      </c>
+      <c r="C346">
+        <v>5.6522291375586953E-3</v>
+      </c>
+      <c r="D346">
+        <v>2.619692863595291E-2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B347">
+        <v>-8.0348736321348424E-3</v>
+      </c>
+      <c r="C347">
+        <v>-2.4818440164193319E-2</v>
+      </c>
+      <c r="D347">
+        <v>-3.9759389671361389E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B348">
+        <v>4.6294910828561298E-2</v>
+      </c>
+      <c r="C348">
+        <v>3.6782800155420237E-2</v>
+      </c>
+      <c r="D348">
+        <v>5.4698242933536978E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B349">
+        <v>-5.2741309234019429E-2</v>
+      </c>
+      <c r="C349">
+        <v>-8.9943785134291021E-3</v>
+      </c>
+      <c r="D349">
+        <v>-2.129508909169919E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B350">
+        <v>-2.9516976550946209E-2</v>
+      </c>
+      <c r="C350">
+        <v>-3.69343249716374E-2</v>
+      </c>
+      <c r="D350">
+        <v>-4.6921255180580212E-2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B351">
+        <v>3.7555589146135882E-2</v>
+      </c>
+      <c r="C351">
+        <v>-2.1596858638743499E-2</v>
+      </c>
+      <c r="D351">
+        <v>-1.863643422891759E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>44680</v>
+      </c>
+      <c r="B352">
+        <v>-8.776903216822507E-2</v>
+      </c>
+      <c r="C352">
+        <v>-4.0468227424749197E-2</v>
+      </c>
+      <c r="D352">
+        <v>-5.8711821490742173E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B353">
+        <v>2.257290165480486E-3</v>
+      </c>
+      <c r="C353">
+        <v>1.5545486232136699E-2</v>
+      </c>
+      <c r="D353">
+        <v>2.08473436449228E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B354">
+        <v>-8.2469318968010907E-2</v>
+      </c>
+      <c r="C354">
+        <v>-6.4113124656781983E-2</v>
+      </c>
+      <c r="D354">
+        <v>-8.794466403162049E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B355">
+        <v>9.2087456934515366E-2</v>
+      </c>
+      <c r="C355">
+        <v>3.4399295877952207E-2</v>
+      </c>
+      <c r="D355">
+        <v>4.2795232936077898E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B356">
+        <v>-4.0801868702520012E-2</v>
+      </c>
+      <c r="C356">
+        <v>-2.581011132383193E-2</v>
+      </c>
+      <c r="D356">
+        <v>-3.6536796536796527E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B357">
+        <v>-9.2416410896602907E-2</v>
+      </c>
+      <c r="C357">
+        <v>-6.8636727563869182E-2</v>
+      </c>
+      <c r="D357">
+        <v>-9.3278217109992734E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>44865</v>
+      </c>
+      <c r="B358">
+        <v>8.1275484920479091E-2</v>
+      </c>
+      <c r="C358">
+        <v>3.3213504220068968E-2</v>
+      </c>
+      <c r="D358">
+        <v>6.0455896927651187E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>44895</v>
+      </c>
+      <c r="B359">
+        <v>5.5591530157602653E-2</v>
+      </c>
+      <c r="C359">
+        <v>7.805763557975931E-2</v>
+      </c>
+      <c r="D359">
+        <v>0.1071028037383177</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B360">
+        <v>-5.7575773855690571E-2</v>
+      </c>
+      <c r="C360">
+        <v>-1.915386234476946E-2</v>
+      </c>
+      <c r="D360">
+        <v>-3.2753672125611977E-2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B361">
+        <v>6.288730285695765E-2</v>
+      </c>
+      <c r="C361">
+        <v>5.8011444921316047E-2</v>
+      </c>
+      <c r="D361">
+        <v>8.0642345959155204E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B362">
+        <v>-2.5142632287097341E-2</v>
+      </c>
+      <c r="C362">
+        <v>-2.3527820972212728E-2</v>
+      </c>
+      <c r="D362">
+        <v>-2.923598772411562E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B363">
+        <v>3.7124891614161097E-2</v>
+      </c>
+      <c r="C363">
+        <v>1.2739735512012681E-2</v>
+      </c>
+      <c r="D363">
+        <v>1.547420965058244E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B364">
+        <v>1.5974961820125921E-2</v>
+      </c>
+      <c r="C364">
+        <v>8.8876734805496405E-3</v>
+      </c>
+      <c r="D364">
+        <v>1.294445354743567E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B365">
+        <v>4.6161692884867378E-3</v>
+      </c>
+      <c r="C365">
+        <v>-2.093921528766007E-2</v>
+      </c>
+      <c r="D365">
+        <v>-2.264639275315428E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B366">
+        <v>6.4814267730854525E-2</v>
+      </c>
+      <c r="C366">
+        <v>3.979789590254712E-2</v>
+      </c>
+      <c r="D366">
+        <v>6.0741476332340387E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B367">
+        <v>3.2733272783952438E-2</v>
+      </c>
+      <c r="C367">
+        <v>3.1218797843306941E-2</v>
+      </c>
+      <c r="D367">
+        <v>4.3688562958339887E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B368">
+        <v>-1.625203881186366E-2</v>
+      </c>
+      <c r="C368">
+        <v>-2.1043119029176331E-2</v>
+      </c>
+      <c r="D368">
+        <v>-3.1095828972940609E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B369">
+        <v>-4.7393328977418658E-2</v>
+      </c>
+      <c r="C369">
+        <v>-1.6352367137016929E-2</v>
+      </c>
+      <c r="D369">
+        <v>-2.3144576454250831E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B370">
+        <v>-2.170865112999976E-2</v>
+      </c>
+      <c r="C370">
+        <v>-2.8623139831076672E-2</v>
+      </c>
+      <c r="D370">
+        <v>-3.3486021165692659E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B371">
+        <v>9.1343871029709867E-2</v>
+      </c>
+      <c r="C371">
+        <v>6.3694707059554156E-2</v>
+      </c>
+      <c r="D371">
+        <v>8.1385847360679886E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B372">
+        <v>4.5662521065815698E-2</v>
+      </c>
+      <c r="C372">
+        <v>5.3328143246399451E-2</v>
+      </c>
+      <c r="D372">
+        <v>5.8334592715732159E-2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B373">
+        <v>1.59265124064405E-2</v>
+      </c>
+      <c r="C373">
+        <v>-4.3729982754373564E-3</v>
+      </c>
+      <c r="D373">
+        <v>-4.4266742824503602E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B374">
+        <v>5.2186881635623912E-2</v>
+      </c>
+      <c r="C374">
+        <v>1.385709866996576E-2</v>
+      </c>
+      <c r="D374">
+        <v>3.0407343660355801E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B375">
+        <v>3.2723827127335792E-2</v>
+      </c>
+      <c r="C375">
+        <v>2.7640490572945261E-2</v>
+      </c>
+      <c r="D375">
+        <v>3.7026726057906467E-2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B376">
+        <v>-4.031963133974048E-2</v>
+      </c>
+      <c r="C376">
+        <v>-2.6600166251039E-2</v>
+      </c>
+      <c r="D376">
+        <v>-2.6308724832214692E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B377">
+        <v>5.0579686433616322E-2</v>
+      </c>
+      <c r="C377">
+        <v>3.4768817860192591E-2</v>
+      </c>
+      <c r="D377">
+        <v>4.3148607664736723E-2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>45471</v>
+      </c>
+      <c r="B378">
+        <v>3.5284655401966569E-2</v>
+      </c>
+      <c r="C378">
+        <v>-7.1917000707379941E-3</v>
+      </c>
+      <c r="D378">
+        <v>-1.3083124091449631E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B379">
+        <v>1.210909732446197E-2</v>
+      </c>
+      <c r="C379">
+        <v>3.0400190001187429E-2</v>
+      </c>
+      <c r="D379">
+        <v>3.4681306909480243E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B380">
+        <v>2.3365649680494371E-2</v>
+      </c>
+      <c r="C380">
+        <v>1.4694018670047271E-2</v>
+      </c>
+      <c r="D380">
+        <v>1.9541866183512498E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B381">
+        <v>2.100911067159017E-2</v>
+      </c>
+      <c r="C381">
+        <v>1.243682207961827E-2</v>
+      </c>
+      <c r="D381">
+        <v>1.535922823051528E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
         <v>45596</v>
       </c>
-      <c r="B336">
+      <c r="B382">
         <v>-8.9235932691981157E-3</v>
       </c>
-      <c r="C336">
+      <c r="C382">
         <v>-3.6908234238276938E-2</v>
       </c>
-      <c r="D336">
+      <c r="D382">
         <v>-3.9504938117264632E-2</v>
       </c>
     </row>
